--- a/data/fractionation/221214 Batch 133 Summary.xlsx
+++ b/data/fractionation/221214 Batch 133 Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SIP Pipeline\Mike\221214 Batch 133 Water Yr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3AE3FF-16C1-4978-9DDC-AF951500A4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26339E10-744F-40AC-9BAB-25E8E8F9C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="622" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="211">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -776,12 +776,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>Isotope</t>
   </si>
   <si>
@@ -1146,7 +1140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1379,8 +1373,6 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
@@ -5192,19 +5184,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.7758771490000012</c:v>
+                  <c:v>1.7616712690000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.769320589000003</c:v>
+                  <c:v>1.7649495490000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7638567890000001</c:v>
+                  <c:v>1.7616712690000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7562074690000014</c:v>
+                  <c:v>1.7573002290000019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7496509090000014</c:v>
+                  <c:v>1.750743669000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7441871090000003</c:v>
@@ -5216,46 +5208,46 @@
                   <c:v>1.732166749000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7277957090000022</c:v>
+                  <c:v>1.7268941820000023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7212391490000005</c:v>
+                  <c:v>1.7203376220000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7146825890000006</c:v>
+                  <c:v>1.7148738220000013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7081260290000024</c:v>
+                  <c:v>1.7094100220000019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7026622290000031</c:v>
+                  <c:v>1.702853462000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6971984290000002</c:v>
+                  <c:v>1.6962969020000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.690641869000002</c:v>
+                  <c:v>1.6919258620000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6851780690000027</c:v>
+                  <c:v>1.6853693020000016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6808070290000021</c:v>
+                  <c:v>1.6799055020000022</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6731577090000016</c:v>
+                  <c:v>1.6733489420000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.653488029</c:v>
+                  <c:v>1.6591430620000018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5835513890000019</c:v>
+                  <c:v>1.5924847020000019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4218229090000012</c:v>
+                  <c:v>1.4307562220000012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2141985090000009</c:v>
+                  <c:v>1.2143897419999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5769,75 +5761,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AM$4:$AM$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-13.63998868</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5965,75 +5894,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AP$4:$AP$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-13.63998868</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6161,75 +6027,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AS$4:$AS$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-13.63998868</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6357,75 +6160,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AV$4:$AV$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-13.63998868</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7098,19 +6838,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1.7758771490000012</c:v>
+                  <c:v>1.7616712690000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.769320589000003</c:v>
+                  <c:v>1.7649495490000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7638567890000001</c:v>
+                  <c:v>1.7616712690000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7562074690000014</c:v>
+                  <c:v>1.7573002290000019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7496509090000014</c:v>
+                  <c:v>1.750743669000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.7441871090000003</c:v>
@@ -7122,46 +6862,46 @@
                   <c:v>1.732166749000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7277957090000022</c:v>
+                  <c:v>1.7268941820000023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.7212391490000005</c:v>
+                  <c:v>1.7203376220000006</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7146825890000006</c:v>
+                  <c:v>1.7148738220000013</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7081260290000024</c:v>
+                  <c:v>1.7094100220000019</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.7026622290000031</c:v>
+                  <c:v>1.702853462000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6971984290000002</c:v>
+                  <c:v>1.6962969020000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.690641869000002</c:v>
+                  <c:v>1.6919258620000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6851780690000027</c:v>
+                  <c:v>1.6853693020000016</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6808070290000021</c:v>
+                  <c:v>1.6799055020000022</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6731577090000016</c:v>
+                  <c:v>1.6733489420000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.653488029</c:v>
+                  <c:v>1.6591430620000018</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.5835513890000019</c:v>
+                  <c:v>1.5924847020000019</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.4218229090000012</c:v>
+                  <c:v>1.4307562220000012</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2141985090000009</c:v>
+                  <c:v>1.2143897419999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7639,76 +7379,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AM$5:$AM$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AN$5:$AN$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7760,76 +7442,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AP$5:$AP$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AQ$5:$AQ$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7881,76 +7505,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AS$5:$AS$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AT$5:$AT$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8002,76 +7568,18 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AV$5:$AV$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-13.63998868</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AW$5:$AW$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10604,18 +10112,18 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.29296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.703125" customWidth="1"/>
-    <col min="4" max="4" width="17.29296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5859375" customWidth="1"/>
-    <col min="7" max="7" width="18.703125" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
@@ -10647,16 +10155,16 @@
         <v>200</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>201</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>197</v>
@@ -10685,8 +10193,8 @@
         <v>4000</v>
       </c>
       <c r="H5" s="50">
-        <f>Summary!G26</f>
-        <v>74.939309014528703</v>
+        <f>Summary!D26</f>
+        <v>65.013863798128952</v>
       </c>
       <c r="I5" s="65">
         <v>37</v>
@@ -10715,8 +10223,8 @@
         <v>4000</v>
       </c>
       <c r="H6" s="50">
-        <f>Summary!G27</f>
-        <v>0</v>
+        <f>Summary!G26</f>
+        <v>74.939309014528703</v>
       </c>
       <c r="I6" s="50">
         <v>37</v>
@@ -11024,12 +10532,12 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -11045,9 +10553,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -11662,9 +11170,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12279,9 +11787,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -12895,9 +12403,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -13511,9 +13019,9 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14127,9 +13635,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -14743,9 +14251,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -15271,9 +14779,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -17018,9 +16526,9 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -17547,9 +17055,9 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -19287,73 +18795,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AW86"/>
+  <dimension ref="A1:AK86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ12" sqref="AJ12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="9.52734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.41015625" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.87890625" style="53"/>
-    <col min="8" max="8" width="10.87890625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="10.87890625" style="53"/>
+    <col min="1" max="1" width="9.54296875" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.90625" style="53"/>
+    <col min="8" max="8" width="10.90625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="53"/>
     <col min="10" max="11" width="11" style="53" customWidth="1"/>
-    <col min="12" max="16384" width="10.87890625" style="53"/>
+    <col min="12" max="16384" width="10.90625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="13" thickTop="1">
+    <row r="1" spans="1:37" ht="13" thickTop="1">
       <c r="A1" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="112">
+      <c r="B1" s="110">
         <f>TubeLoading!F29</f>
         <v>2036</v>
       </c>
-      <c r="C1" s="113" t="str">
+      <c r="C1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$29,"density")</f>
         <v>2036-density</v>
       </c>
-      <c r="D1" s="114" t="str">
+      <c r="D1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$29,"conc")</f>
         <v>2036-conc</v>
       </c>
-      <c r="E1" s="112">
+      <c r="E1" s="110">
         <f>TubeLoading!F30</f>
         <v>3966</v>
       </c>
-      <c r="F1" s="113" t="str">
+      <c r="F1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$30,"density")</f>
         <v>3966-density</v>
       </c>
-      <c r="G1" s="114" t="str">
+      <c r="G1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$30,"conc")</f>
         <v>3966-conc</v>
       </c>
-      <c r="H1" s="112">
+      <c r="H1" s="110">
         <f>TubeLoading!F31</f>
         <v>3203</v>
       </c>
-      <c r="I1" s="113" t="str">
+      <c r="I1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$31,"density")</f>
         <v>3203-density</v>
       </c>
-      <c r="J1" s="114" t="str">
+      <c r="J1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$31,"conc")</f>
         <v>3203-conc</v>
       </c>
-      <c r="K1" s="112">
+      <c r="K1" s="110">
         <f>TubeLoading!F32</f>
         <v>4012</v>
       </c>
-      <c r="L1" s="113" t="str">
+      <c r="L1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$32,"density")</f>
         <v>4012-density</v>
       </c>
-      <c r="M1" s="114" t="str">
+      <c r="M1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$32,"conc")</f>
         <v>4012-conc</v>
       </c>
@@ -19361,11 +18869,11 @@
         <f>TubeLoading!F33</f>
         <v>4011</v>
       </c>
-      <c r="O1" s="113" t="str">
+      <c r="O1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"density")</f>
         <v>4011-density</v>
       </c>
-      <c r="P1" s="114" t="str">
+      <c r="P1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"conc")</f>
         <v>4011-conc</v>
       </c>
@@ -19373,11 +18881,11 @@
         <f>TubeLoading!F34</f>
         <v>3205</v>
       </c>
-      <c r="R1" s="113" t="str">
+      <c r="R1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"density")</f>
         <v>3205-density</v>
       </c>
-      <c r="S1" s="114" t="str">
+      <c r="S1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"conc")</f>
         <v>3205-conc</v>
       </c>
@@ -19385,11 +18893,11 @@
         <f>TubeLoading!F35</f>
         <v>1465</v>
       </c>
-      <c r="U1" s="113" t="str">
+      <c r="U1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"density")</f>
         <v>1465-density</v>
       </c>
-      <c r="V1" s="114" t="str">
+      <c r="V1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"conc")</f>
         <v>1465-conc</v>
       </c>
@@ -19397,11 +18905,11 @@
         <f>TubeLoading!F36</f>
         <v>1423</v>
       </c>
-      <c r="X1" s="113" t="str">
+      <c r="X1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"density")</f>
         <v>1423-density</v>
       </c>
-      <c r="Y1" s="114" t="str">
+      <c r="Y1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"conc")</f>
         <v>1423-conc</v>
       </c>
@@ -19409,11 +18917,11 @@
         <f>TubeLoading!F37</f>
         <v>1784</v>
       </c>
-      <c r="AA1" s="113" t="str">
+      <c r="AA1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"density")</f>
         <v>1784-density</v>
       </c>
-      <c r="AB1" s="114" t="str">
+      <c r="AB1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"conc")</f>
         <v>1784-conc</v>
       </c>
@@ -19421,11 +18929,11 @@
         <f>TubeLoading!F38</f>
         <v>2031</v>
       </c>
-      <c r="AD1" s="113" t="str">
+      <c r="AD1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"density")</f>
         <v>2031-density</v>
       </c>
-      <c r="AE1" s="114" t="str">
+      <c r="AE1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"conc")</f>
         <v>2031-conc</v>
       </c>
@@ -19433,11 +18941,11 @@
         <f>TubeLoading!F39</f>
         <v>1869</v>
       </c>
-      <c r="AG1" s="113" t="str">
+      <c r="AG1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"density")</f>
         <v>1869-density</v>
       </c>
-      <c r="AH1" s="114" t="str">
+      <c r="AH1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"conc")</f>
         <v>1869-conc</v>
       </c>
@@ -19445,125 +18953,81 @@
         <f>TubeLoading!F40</f>
         <v>3195</v>
       </c>
-      <c r="AJ1" s="113" t="str">
+      <c r="AJ1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"density")</f>
         <v>3195-density</v>
       </c>
-      <c r="AK1" s="114" t="str">
+      <c r="AK1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"conc")</f>
         <v>3195-conc</v>
       </c>
-      <c r="AL1" s="109">
-        <f>TubeLoading!F41</f>
-        <v>0</v>
-      </c>
-      <c r="AM1" s="113"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="109">
-        <f>TubeLoading!F42</f>
-        <v>0</v>
-      </c>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="111"/>
-      <c r="AR1" s="109">
-        <f>TubeLoading!F43</f>
-        <v>0</v>
-      </c>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="111"/>
-      <c r="AU1" s="109">
-        <f>TubeLoading!F44</f>
-        <v>0</v>
-      </c>
-      <c r="AV1" s="110"/>
-      <c r="AW1" s="111"/>
-    </row>
-    <row r="2" spans="1:49">
+    </row>
+    <row r="2" spans="1:37">
       <c r="A2" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="116" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="118" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="116" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="118" t="s">
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="118" t="s">
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="116" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="115" t="s">
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="113" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="116"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="115" t="s">
+      <c r="O2" s="114"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="113" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="116"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="115" t="s">
+      <c r="R2" s="114"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="116"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="115" t="s">
+      <c r="U2" s="114"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="115" t="s">
+      <c r="X2" s="114"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="115" t="s">
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="113" t="s">
         <v>204</v>
       </c>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="115" t="s">
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="AG2" s="116"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="115" t="s">
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="116"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="115" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="116"/>
-      <c r="AN2" s="117"/>
-      <c r="AO2" s="115" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP2" s="116"/>
-      <c r="AQ2" s="117"/>
-      <c r="AR2" s="115" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV2" s="116"/>
-      <c r="AW2" s="117"/>
-    </row>
-    <row r="3" spans="1:49">
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="115"/>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" s="59" t="s">
         <v>168</v>
       </c>
@@ -19675,44 +19139,8 @@
       <c r="AK3" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="AL3" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="AM3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="AN3" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO3" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="AP3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="AQ3" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR3" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT3" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU3" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="AV3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="AW3" s="83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49">
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" s="53">
         <v>1</v>
       </c>
@@ -19820,8 +19248,8 @@
         <v>G3</v>
       </c>
       <c r="AD4" s="67">
-        <f>'Tube I'!F2</f>
-        <v>1.7758771490000012</v>
+        <f>'Tube J'!F2</f>
+        <v>1.7616712690000007</v>
       </c>
       <c r="AE4" s="68">
         <v>-4.2493337490999671E-2</v>
@@ -19848,44 +19276,8 @@
       <c r="AK4" s="68">
         <v>-3.8284160058080711E-2</v>
       </c>
-      <c r="AL4" s="66" t="str">
-        <f>'Tube M'!G2</f>
-        <v>A1</v>
-      </c>
-      <c r="AM4" s="67">
-        <f>'Tube M'!F2</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="66" t="str">
-        <f>'Tube N'!G2</f>
-        <v>G3</v>
-      </c>
-      <c r="AP4" s="67">
-        <f>'Tube N'!F2</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="66" t="str">
-        <f>'Tube O'!G2</f>
-        <v>D6</v>
-      </c>
-      <c r="AS4" s="67">
-        <f>'Tube O'!F2</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="66" t="str">
-        <f>'Tube P'!G2</f>
-        <v>C9</v>
-      </c>
-      <c r="AV4" s="67">
-        <f>'Tube P'!F2</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW4" s="68"/>
-    </row>
-    <row r="5" spans="1:49">
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -19992,9 +19384,9 @@
         <f>'Tube J'!G3</f>
         <v>H3</v>
       </c>
-      <c r="AD5" s="70">
-        <f>'Tube I'!F3</f>
-        <v>1.769320589000003</v>
+      <c r="AD5" s="67">
+        <f>'Tube J'!F3</f>
+        <v>1.7649495490000007</v>
       </c>
       <c r="AE5" s="71">
         <v>-3.5983297994610301E-2</v>
@@ -20021,44 +19413,8 @@
       <c r="AK5" s="71">
         <v>-2.4196140456215227E-2</v>
       </c>
-      <c r="AL5" s="69" t="str">
-        <f>'Tube M'!G3</f>
-        <v>B1</v>
-      </c>
-      <c r="AM5" s="70">
-        <f>'Tube M'!F3</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN5" s="71"/>
-      <c r="AO5" s="69" t="str">
-        <f>'Tube N'!G3</f>
-        <v>H3</v>
-      </c>
-      <c r="AP5" s="70">
-        <f>'Tube N'!F3</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ5" s="71"/>
-      <c r="AR5" s="69" t="str">
-        <f>'Tube O'!G3</f>
-        <v>C6</v>
-      </c>
-      <c r="AS5" s="70">
-        <f>'Tube O'!F3</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT5" s="71"/>
-      <c r="AU5" s="69" t="str">
-        <f>'Tube P'!G3</f>
-        <v>D9</v>
-      </c>
-      <c r="AV5" s="70">
-        <f>'Tube P'!F3</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW5" s="71"/>
-    </row>
-    <row r="6" spans="1:49">
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -20165,9 +19521,9 @@
         <f>'Tube J'!G4</f>
         <v>H4</v>
       </c>
-      <c r="AD6" s="70">
-        <f>'Tube I'!F4</f>
-        <v>1.7638567890000001</v>
+      <c r="AD6" s="67">
+        <f>'Tube J'!F4</f>
+        <v>1.7616712690000007</v>
       </c>
       <c r="AE6" s="71">
         <v>-4.0892241478493942E-2</v>
@@ -20194,44 +19550,8 @@
       <c r="AK6" s="71">
         <v>-3.8876039620580304E-2</v>
       </c>
-      <c r="AL6" s="69" t="str">
-        <f>'Tube M'!G4</f>
-        <v>C1</v>
-      </c>
-      <c r="AM6" s="70">
-        <f>'Tube M'!F4</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN6" s="71"/>
-      <c r="AO6" s="69" t="str">
-        <f>'Tube N'!G4</f>
-        <v>H4</v>
-      </c>
-      <c r="AP6" s="70">
-        <f>'Tube N'!F4</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ6" s="71"/>
-      <c r="AR6" s="69" t="str">
-        <f>'Tube O'!G4</f>
-        <v>B6</v>
-      </c>
-      <c r="AS6" s="70">
-        <f>'Tube O'!F4</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT6" s="71"/>
-      <c r="AU6" s="69" t="str">
-        <f>'Tube P'!G4</f>
-        <v>E9</v>
-      </c>
-      <c r="AV6" s="70">
-        <f>'Tube P'!F4</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW6" s="71"/>
-    </row>
-    <row r="7" spans="1:49">
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="53">
         <v>4</v>
       </c>
@@ -20338,9 +19658,9 @@
         <f>'Tube J'!G5</f>
         <v>G4</v>
       </c>
-      <c r="AD7" s="70">
-        <f>'Tube I'!F5</f>
-        <v>1.7562074690000014</v>
+      <c r="AD7" s="67">
+        <f>'Tube J'!F5</f>
+        <v>1.7573002290000019</v>
       </c>
       <c r="AE7" s="71">
         <v>2.8208086511399961E-2</v>
@@ -20367,44 +19687,8 @@
       <c r="AK7" s="71">
         <v>7.4150454266536832E-3</v>
       </c>
-      <c r="AL7" s="69" t="str">
-        <f>'Tube M'!G5</f>
-        <v>D1</v>
-      </c>
-      <c r="AM7" s="70">
-        <f>'Tube M'!F5</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN7" s="71"/>
-      <c r="AO7" s="69" t="str">
-        <f>'Tube N'!G5</f>
-        <v>G4</v>
-      </c>
-      <c r="AP7" s="70">
-        <f>'Tube N'!F5</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ7" s="71"/>
-      <c r="AR7" s="69" t="str">
-        <f>'Tube O'!G5</f>
-        <v>A6</v>
-      </c>
-      <c r="AS7" s="70">
-        <f>'Tube O'!F5</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT7" s="71"/>
-      <c r="AU7" s="69" t="str">
-        <f>'Tube P'!G5</f>
-        <v>F9</v>
-      </c>
-      <c r="AV7" s="70">
-        <f>'Tube P'!F5</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW7" s="71"/>
-    </row>
-    <row r="8" spans="1:49">
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="53">
         <v>5</v>
       </c>
@@ -20511,9 +19795,9 @@
         <f>'Tube J'!G6</f>
         <v>F4</v>
       </c>
-      <c r="AD8" s="70">
-        <f>'Tube I'!F6</f>
-        <v>1.7496509090000014</v>
+      <c r="AD8" s="67">
+        <f>'Tube J'!F6</f>
+        <v>1.750743669000002</v>
       </c>
       <c r="AE8" s="71">
         <v>0.4732448303453749</v>
@@ -20540,44 +19824,8 @@
       <c r="AK8" s="71">
         <v>0.15337976047986368</v>
       </c>
-      <c r="AL8" s="69" t="str">
-        <f>'Tube M'!G6</f>
-        <v>E1</v>
-      </c>
-      <c r="AM8" s="70">
-        <f>'Tube M'!F6</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="69" t="str">
-        <f>'Tube N'!G6</f>
-        <v>F4</v>
-      </c>
-      <c r="AP8" s="70">
-        <f>'Tube N'!F6</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ8" s="71"/>
-      <c r="AR8" s="69" t="str">
-        <f>'Tube O'!G6</f>
-        <v>A7</v>
-      </c>
-      <c r="AS8" s="70">
-        <f>'Tube O'!F6</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT8" s="71"/>
-      <c r="AU8" s="69" t="str">
-        <f>'Tube P'!G6</f>
-        <v>G9</v>
-      </c>
-      <c r="AV8" s="70">
-        <f>'Tube P'!F6</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW8" s="71"/>
-    </row>
-    <row r="9" spans="1:49">
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="53">
         <v>6</v>
       </c>
@@ -20684,8 +19932,8 @@
         <f>'Tube J'!G7</f>
         <v>E4</v>
       </c>
-      <c r="AD9" s="70">
-        <f>'Tube I'!F7</f>
+      <c r="AD9" s="67">
+        <f>'Tube J'!F7</f>
         <v>1.7441871090000003</v>
       </c>
       <c r="AE9" s="71">
@@ -20713,44 +19961,8 @@
       <c r="AK9" s="71">
         <v>0.4425565862580525</v>
       </c>
-      <c r="AL9" s="69" t="str">
-        <f>'Tube M'!G7</f>
-        <v>F1</v>
-      </c>
-      <c r="AM9" s="70">
-        <f>'Tube M'!F7</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN9" s="71"/>
-      <c r="AO9" s="69" t="str">
-        <f>'Tube N'!G7</f>
-        <v>E4</v>
-      </c>
-      <c r="AP9" s="70">
-        <f>'Tube N'!F7</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ9" s="71"/>
-      <c r="AR9" s="69" t="str">
-        <f>'Tube O'!G7</f>
-        <v>B7</v>
-      </c>
-      <c r="AS9" s="70">
-        <f>'Tube O'!F7</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT9" s="71"/>
-      <c r="AU9" s="69" t="str">
-        <f>'Tube P'!G7</f>
-        <v>H9</v>
-      </c>
-      <c r="AV9" s="70">
-        <f>'Tube P'!F7</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW9" s="71"/>
-    </row>
-    <row r="10" spans="1:49">
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="53">
         <v>7</v>
       </c>
@@ -20857,8 +20069,8 @@
         <f>'Tube J'!G8</f>
         <v>D4</v>
       </c>
-      <c r="AD10" s="70">
-        <f>'Tube I'!F8</f>
+      <c r="AD10" s="67">
+        <f>'Tube J'!F8</f>
         <v>1.7376305490000004</v>
       </c>
       <c r="AE10" s="71">
@@ -20886,44 +20098,8 @@
       <c r="AK10" s="72">
         <v>0.98319024002015365</v>
       </c>
-      <c r="AL10" s="69" t="str">
-        <f>'Tube M'!G8</f>
-        <v>G1</v>
-      </c>
-      <c r="AM10" s="70">
-        <f>'Tube M'!F8</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN10" s="71"/>
-      <c r="AO10" s="69" t="str">
-        <f>'Tube N'!G8</f>
-        <v>D4</v>
-      </c>
-      <c r="AP10" s="70">
-        <f>'Tube N'!F8</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ10" s="71"/>
-      <c r="AR10" s="69" t="str">
-        <f>'Tube O'!G8</f>
-        <v>C7</v>
-      </c>
-      <c r="AS10" s="70">
-        <f>'Tube O'!F8</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT10" s="71"/>
-      <c r="AU10" s="69" t="str">
-        <f>'Tube P'!G8</f>
-        <v>H10</v>
-      </c>
-      <c r="AV10" s="70">
-        <f>'Tube P'!F8</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW10" s="72"/>
-    </row>
-    <row r="11" spans="1:49">
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="53">
         <v>8</v>
       </c>
@@ -21030,8 +20206,8 @@
         <f>'Tube J'!G9</f>
         <v>C4</v>
       </c>
-      <c r="AD11" s="70">
-        <f>'Tube I'!F9</f>
+      <c r="AD11" s="67">
+        <f>'Tube J'!F9</f>
         <v>1.732166749000001</v>
       </c>
       <c r="AE11" s="71">
@@ -21059,44 +20235,8 @@
       <c r="AK11" s="72">
         <v>2.071860929373734</v>
       </c>
-      <c r="AL11" s="69" t="str">
-        <f>'Tube M'!G9</f>
-        <v>H1</v>
-      </c>
-      <c r="AM11" s="70">
-        <f>'Tube M'!F9</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="69" t="str">
-        <f>'Tube N'!G9</f>
-        <v>C4</v>
-      </c>
-      <c r="AP11" s="70">
-        <f>'Tube N'!F9</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ11" s="71"/>
-      <c r="AR11" s="69" t="str">
-        <f>'Tube O'!G9</f>
-        <v>D7</v>
-      </c>
-      <c r="AS11" s="70">
-        <f>'Tube O'!F9</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT11" s="71"/>
-      <c r="AU11" s="69" t="str">
-        <f>'Tube P'!G9</f>
-        <v>G10</v>
-      </c>
-      <c r="AV11" s="70">
-        <f>'Tube P'!F9</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW11" s="72"/>
-    </row>
-    <row r="12" spans="1:49">
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="53">
         <v>9</v>
       </c>
@@ -21203,9 +20343,9 @@
         <f>'Tube J'!G10</f>
         <v>B4</v>
       </c>
-      <c r="AD12" s="70">
-        <f>'Tube I'!F10</f>
-        <v>1.7277957090000022</v>
+      <c r="AD12" s="67">
+        <f>'Tube J'!F10</f>
+        <v>1.7268941820000023</v>
       </c>
       <c r="AE12" s="71">
         <v>10.251813724991193</v>
@@ -21232,44 +20372,8 @@
       <c r="AK12" s="72">
         <v>8.3919064186559726</v>
       </c>
-      <c r="AL12" s="69" t="str">
-        <f>'Tube M'!G10</f>
-        <v>H2</v>
-      </c>
-      <c r="AM12" s="70">
-        <f>'Tube M'!F10</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="69" t="str">
-        <f>'Tube N'!G10</f>
-        <v>B4</v>
-      </c>
-      <c r="AP12" s="70">
-        <f>'Tube N'!F10</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ12" s="71"/>
-      <c r="AR12" s="69" t="str">
-        <f>'Tube O'!G10</f>
-        <v>E7</v>
-      </c>
-      <c r="AS12" s="70">
-        <f>'Tube O'!F10</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT12" s="71"/>
-      <c r="AU12" s="69" t="str">
-        <f>'Tube P'!G10</f>
-        <v>F10</v>
-      </c>
-      <c r="AV12" s="70">
-        <f>'Tube P'!F10</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW12" s="72"/>
-    </row>
-    <row r="13" spans="1:49">
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="53">
         <v>10</v>
       </c>
@@ -21376,9 +20480,9 @@
         <f>'Tube J'!G11</f>
         <v>A4</v>
       </c>
-      <c r="AD13" s="70">
-        <f>'Tube I'!F11</f>
-        <v>1.7212391490000005</v>
+      <c r="AD13" s="67">
+        <f>'Tube J'!F11</f>
+        <v>1.7203376220000006</v>
       </c>
       <c r="AE13" s="71">
         <v>14.704833027668696</v>
@@ -21405,44 +20509,8 @@
       <c r="AK13" s="71">
         <v>15.168456133371402</v>
       </c>
-      <c r="AL13" s="69" t="str">
-        <f>'Tube M'!G11</f>
-        <v>G2</v>
-      </c>
-      <c r="AM13" s="70">
-        <f>'Tube M'!F11</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN13" s="71"/>
-      <c r="AO13" s="69" t="str">
-        <f>'Tube N'!G11</f>
-        <v>A4</v>
-      </c>
-      <c r="AP13" s="70">
-        <f>'Tube N'!F11</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ13" s="71"/>
-      <c r="AR13" s="69" t="str">
-        <f>'Tube O'!G11</f>
-        <v>F7</v>
-      </c>
-      <c r="AS13" s="70">
-        <f>'Tube O'!F11</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT13" s="71"/>
-      <c r="AU13" s="69" t="str">
-        <f>'Tube P'!G11</f>
-        <v>E10</v>
-      </c>
-      <c r="AV13" s="70">
-        <f>'Tube P'!F11</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW13" s="71"/>
-    </row>
-    <row r="14" spans="1:49">
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="53">
         <v>11</v>
       </c>
@@ -21549,9 +20617,9 @@
         <f>'Tube J'!G12</f>
         <v>A5</v>
       </c>
-      <c r="AD14" s="70">
-        <f>'Tube I'!F12</f>
-        <v>1.7146825890000006</v>
+      <c r="AD14" s="67">
+        <f>'Tube J'!F12</f>
+        <v>1.7148738220000013</v>
       </c>
       <c r="AE14" s="71">
         <v>10.1057952020653</v>
@@ -21578,44 +20646,8 @@
       <c r="AK14" s="73">
         <v>13.571247209689352</v>
       </c>
-      <c r="AL14" s="69" t="str">
-        <f>'Tube M'!G12</f>
-        <v>F2</v>
-      </c>
-      <c r="AM14" s="70">
-        <f>'Tube M'!F12</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN14" s="71"/>
-      <c r="AO14" s="69" t="str">
-        <f>'Tube N'!G12</f>
-        <v>A5</v>
-      </c>
-      <c r="AP14" s="70">
-        <f>'Tube N'!F12</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ14" s="71"/>
-      <c r="AR14" s="69" t="str">
-        <f>'Tube O'!G12</f>
-        <v>G7</v>
-      </c>
-      <c r="AS14" s="70">
-        <f>'Tube O'!F12</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT14" s="71"/>
-      <c r="AU14" s="69" t="str">
-        <f>'Tube P'!G12</f>
-        <v>D10</v>
-      </c>
-      <c r="AV14" s="70">
-        <f>'Tube P'!F12</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW14" s="73"/>
-    </row>
-    <row r="15" spans="1:49">
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="53">
         <v>12</v>
       </c>
@@ -21722,9 +20754,9 @@
         <f>'Tube J'!G13</f>
         <v>B5</v>
       </c>
-      <c r="AD15" s="70">
-        <f>'Tube I'!F13</f>
-        <v>1.7081260290000024</v>
+      <c r="AD15" s="67">
+        <f>'Tube J'!F13</f>
+        <v>1.7094100220000019</v>
       </c>
       <c r="AE15" s="71">
         <v>5.656225891687245</v>
@@ -21751,44 +20783,8 @@
       <c r="AK15" s="73">
         <v>8.1865181985616928</v>
       </c>
-      <c r="AL15" s="69" t="str">
-        <f>'Tube M'!G13</f>
-        <v>E2</v>
-      </c>
-      <c r="AM15" s="70">
-        <f>'Tube M'!F13</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN15" s="71"/>
-      <c r="AO15" s="69" t="str">
-        <f>'Tube N'!G13</f>
-        <v>B5</v>
-      </c>
-      <c r="AP15" s="70">
-        <f>'Tube N'!F13</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ15" s="71"/>
-      <c r="AR15" s="69" t="str">
-        <f>'Tube O'!G13</f>
-        <v>H7</v>
-      </c>
-      <c r="AS15" s="70">
-        <f>'Tube O'!F13</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT15" s="71"/>
-      <c r="AU15" s="69" t="str">
-        <f>'Tube P'!G13</f>
-        <v>C10</v>
-      </c>
-      <c r="AV15" s="70">
-        <f>'Tube P'!F13</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW15" s="73"/>
-    </row>
-    <row r="16" spans="1:49">
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="53">
         <v>13</v>
       </c>
@@ -21895,9 +20891,9 @@
         <f>'Tube J'!G14</f>
         <v>C5</v>
       </c>
-      <c r="AD16" s="70">
-        <f>'Tube I'!F14</f>
-        <v>1.7026622290000031</v>
+      <c r="AD16" s="67">
+        <f>'Tube J'!F14</f>
+        <v>1.702853462000002</v>
       </c>
       <c r="AE16" s="71">
         <v>2.0496890859749821</v>
@@ -21924,44 +20920,8 @@
       <c r="AK16" s="73">
         <v>3.1706941464795051</v>
       </c>
-      <c r="AL16" s="69" t="str">
-        <f>'Tube M'!G14</f>
-        <v>D2</v>
-      </c>
-      <c r="AM16" s="70">
-        <f>'Tube M'!F14</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="69" t="str">
-        <f>'Tube N'!G14</f>
-        <v>C5</v>
-      </c>
-      <c r="AP16" s="70">
-        <f>'Tube N'!F14</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ16" s="71"/>
-      <c r="AR16" s="69" t="str">
-        <f>'Tube O'!G14</f>
-        <v>H8</v>
-      </c>
-      <c r="AS16" s="70">
-        <f>'Tube O'!F14</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT16" s="71"/>
-      <c r="AU16" s="69" t="str">
-        <f>'Tube P'!G14</f>
-        <v>B10</v>
-      </c>
-      <c r="AV16" s="70">
-        <f>'Tube P'!F14</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW16" s="73"/>
-    </row>
-    <row r="17" spans="1:49">
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="53">
         <v>14</v>
       </c>
@@ -22068,9 +21028,9 @@
         <f>'Tube J'!G15</f>
         <v>D5</v>
       </c>
-      <c r="AD17" s="70">
-        <f>'Tube I'!F15</f>
-        <v>1.6971984290000002</v>
+      <c r="AD17" s="67">
+        <f>'Tube J'!F15</f>
+        <v>1.6962969020000003</v>
       </c>
       <c r="AE17" s="71">
         <v>1.1232862207564553</v>
@@ -22097,44 +21057,8 @@
       <c r="AK17" s="71">
         <v>1.2979424599700591</v>
       </c>
-      <c r="AL17" s="69" t="str">
-        <f>'Tube M'!G15</f>
-        <v>C2</v>
-      </c>
-      <c r="AM17" s="70">
-        <f>'Tube M'!F15</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN17" s="71"/>
-      <c r="AO17" s="69" t="str">
-        <f>'Tube N'!G15</f>
-        <v>D5</v>
-      </c>
-      <c r="AP17" s="70">
-        <f>'Tube N'!F15</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ17" s="71"/>
-      <c r="AR17" s="69" t="str">
-        <f>'Tube O'!G15</f>
-        <v>G8</v>
-      </c>
-      <c r="AS17" s="70">
-        <f>'Tube O'!F15</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT17" s="71"/>
-      <c r="AU17" s="69" t="str">
-        <f>'Tube P'!G15</f>
-        <v>A10</v>
-      </c>
-      <c r="AV17" s="70">
-        <f>'Tube P'!F15</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW17" s="71"/>
-    </row>
-    <row r="18" spans="1:49">
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="53">
         <v>15</v>
       </c>
@@ -22241,9 +21165,9 @@
         <f>'Tube J'!G16</f>
         <v>E5</v>
       </c>
-      <c r="AD18" s="70">
-        <f>'Tube I'!F16</f>
-        <v>1.690641869000002</v>
+      <c r="AD18" s="67">
+        <f>'Tube J'!F16</f>
+        <v>1.6919258620000015</v>
       </c>
       <c r="AE18" s="71">
         <v>0.52795174790941357</v>
@@ -22270,44 +21194,8 @@
       <c r="AK18" s="71">
         <v>0.66015842537069169</v>
       </c>
-      <c r="AL18" s="69" t="str">
-        <f>'Tube M'!G16</f>
-        <v>B2</v>
-      </c>
-      <c r="AM18" s="70">
-        <f>'Tube M'!F16</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN18" s="71"/>
-      <c r="AO18" s="69" t="str">
-        <f>'Tube N'!G16</f>
-        <v>E5</v>
-      </c>
-      <c r="AP18" s="70">
-        <f>'Tube N'!F16</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ18" s="71"/>
-      <c r="AR18" s="69" t="str">
-        <f>'Tube O'!G16</f>
-        <v>F8</v>
-      </c>
-      <c r="AS18" s="70">
-        <f>'Tube O'!F16</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT18" s="71"/>
-      <c r="AU18" s="69" t="str">
-        <f>'Tube P'!G16</f>
-        <v>A11</v>
-      </c>
-      <c r="AV18" s="70">
-        <f>'Tube P'!F16</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW18" s="71"/>
-    </row>
-    <row r="19" spans="1:49">
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -22414,9 +21302,9 @@
         <f>'Tube J'!G17</f>
         <v>F5</v>
       </c>
-      <c r="AD19" s="70">
-        <f>'Tube I'!F17</f>
-        <v>1.6851780690000027</v>
+      <c r="AD19" s="67">
+        <f>'Tube J'!F17</f>
+        <v>1.6853693020000016</v>
       </c>
       <c r="AE19" s="71">
         <v>0.30259405640194909</v>
@@ -22443,44 +21331,8 @@
       <c r="AK19" s="71">
         <v>0.38435844667864227</v>
       </c>
-      <c r="AL19" s="69" t="str">
-        <f>'Tube M'!G17</f>
-        <v>A2</v>
-      </c>
-      <c r="AM19" s="70">
-        <f>'Tube M'!F17</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN19" s="71"/>
-      <c r="AO19" s="69" t="str">
-        <f>'Tube N'!G17</f>
-        <v>F5</v>
-      </c>
-      <c r="AP19" s="70">
-        <f>'Tube N'!F17</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ19" s="71"/>
-      <c r="AR19" s="69" t="str">
-        <f>'Tube O'!G17</f>
-        <v>E8</v>
-      </c>
-      <c r="AS19" s="70">
-        <f>'Tube O'!F17</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT19" s="71"/>
-      <c r="AU19" s="69" t="str">
-        <f>'Tube P'!G17</f>
-        <v>B11</v>
-      </c>
-      <c r="AV19" s="70">
-        <f>'Tube P'!F17</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW19" s="71"/>
-    </row>
-    <row r="20" spans="1:49">
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="53">
         <v>17</v>
       </c>
@@ -22587,9 +21439,9 @@
         <f>'Tube J'!G18</f>
         <v>G5</v>
       </c>
-      <c r="AD20" s="70">
-        <f>'Tube I'!F18</f>
-        <v>1.6808070290000021</v>
+      <c r="AD20" s="67">
+        <f>'Tube J'!F18</f>
+        <v>1.6799055020000022</v>
       </c>
       <c r="AE20" s="71">
         <v>0.16503817136000565</v>
@@ -22616,44 +21468,8 @@
       <c r="AK20" s="71">
         <v>0.22408677903630159</v>
       </c>
-      <c r="AL20" s="69" t="str">
-        <f>'Tube M'!G18</f>
-        <v>A3</v>
-      </c>
-      <c r="AM20" s="70">
-        <f>'Tube M'!F18</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN20" s="71"/>
-      <c r="AO20" s="69" t="str">
-        <f>'Tube N'!G18</f>
-        <v>G5</v>
-      </c>
-      <c r="AP20" s="70">
-        <f>'Tube N'!F18</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ20" s="71"/>
-      <c r="AR20" s="69" t="str">
-        <f>'Tube O'!G18</f>
-        <v>D8</v>
-      </c>
-      <c r="AS20" s="70">
-        <f>'Tube O'!F18</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT20" s="71"/>
-      <c r="AU20" s="69" t="str">
-        <f>'Tube P'!G18</f>
-        <v>C11</v>
-      </c>
-      <c r="AV20" s="70">
-        <f>'Tube P'!F18</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW20" s="71"/>
-    </row>
-    <row r="21" spans="1:49">
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="53">
         <v>18</v>
       </c>
@@ -22760,9 +21576,9 @@
         <f>'Tube J'!G19</f>
         <v>H5</v>
       </c>
-      <c r="AD21" s="70">
-        <f>'Tube I'!F19</f>
-        <v>1.6731577090000016</v>
+      <c r="AD21" s="67">
+        <f>'Tube J'!F19</f>
+        <v>1.6733489420000005</v>
       </c>
       <c r="AE21" s="71">
         <v>9.584436467870483E-2</v>
@@ -22789,44 +21605,8 @@
       <c r="AK21" s="71">
         <v>0.18547494168379908</v>
       </c>
-      <c r="AL21" s="69" t="str">
-        <f>'Tube M'!G19</f>
-        <v>B3</v>
-      </c>
-      <c r="AM21" s="70">
-        <f>'Tube M'!F19</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN21" s="71"/>
-      <c r="AO21" s="69" t="str">
-        <f>'Tube N'!G19</f>
-        <v>H5</v>
-      </c>
-      <c r="AP21" s="70">
-        <f>'Tube N'!F19</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ21" s="71"/>
-      <c r="AR21" s="69" t="str">
-        <f>'Tube O'!G19</f>
-        <v>C8</v>
-      </c>
-      <c r="AS21" s="70">
-        <f>'Tube O'!F19</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT21" s="71"/>
-      <c r="AU21" s="69" t="str">
-        <f>'Tube P'!G19</f>
-        <v>D11</v>
-      </c>
-      <c r="AV21" s="70">
-        <f>'Tube P'!F19</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW21" s="71"/>
-    </row>
-    <row r="22" spans="1:49">
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="53">
         <v>19</v>
       </c>
@@ -22933,9 +21713,9 @@
         <f>'Tube J'!G20</f>
         <v>H6</v>
       </c>
-      <c r="AD22" s="70">
-        <f>'Tube I'!F20</f>
-        <v>1.653488029</v>
+      <c r="AD22" s="67">
+        <f>'Tube J'!F20</f>
+        <v>1.6591430620000018</v>
       </c>
       <c r="AE22" s="71">
         <v>0.11851319764267197</v>
@@ -22962,44 +21742,8 @@
       <c r="AK22" s="71">
         <v>0.20109573405743228</v>
       </c>
-      <c r="AL22" s="69" t="str">
-        <f>'Tube M'!G20</f>
-        <v>C3</v>
-      </c>
-      <c r="AM22" s="70">
-        <f>'Tube M'!F20</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="69" t="str">
-        <f>'Tube N'!G20</f>
-        <v>H6</v>
-      </c>
-      <c r="AP22" s="70">
-        <f>'Tube N'!F20</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="69" t="str">
-        <f>'Tube O'!G20</f>
-        <v>B8</v>
-      </c>
-      <c r="AS22" s="70">
-        <f>'Tube O'!F20</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="69" t="str">
-        <f>'Tube P'!G20</f>
-        <v>E11</v>
-      </c>
-      <c r="AV22" s="70">
-        <f>'Tube P'!F20</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW22" s="71"/>
-    </row>
-    <row r="23" spans="1:49">
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -23106,9 +21850,9 @@
         <f>'Tube J'!G21</f>
         <v>G6</v>
       </c>
-      <c r="AD23" s="70">
-        <f>'Tube I'!F21</f>
-        <v>1.5835513890000019</v>
+      <c r="AD23" s="67">
+        <f>'Tube J'!F21</f>
+        <v>1.5924847020000019</v>
       </c>
       <c r="AE23" s="71">
         <v>0.12274208387272083</v>
@@ -23135,44 +21879,8 @@
       <c r="AK23" s="71">
         <v>0.17273067295526878</v>
       </c>
-      <c r="AL23" s="69" t="str">
-        <f>'Tube M'!G21</f>
-        <v>D3</v>
-      </c>
-      <c r="AM23" s="70">
-        <f>'Tube M'!F21</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN23" s="71"/>
-      <c r="AO23" s="69" t="str">
-        <f>'Tube N'!G21</f>
-        <v>G6</v>
-      </c>
-      <c r="AP23" s="70">
-        <f>'Tube N'!F21</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ23" s="71"/>
-      <c r="AR23" s="69" t="str">
-        <f>'Tube O'!G21</f>
-        <v>A8</v>
-      </c>
-      <c r="AS23" s="70">
-        <f>'Tube O'!F21</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT23" s="71"/>
-      <c r="AU23" s="69" t="str">
-        <f>'Tube P'!G21</f>
-        <v>F11</v>
-      </c>
-      <c r="AV23" s="70">
-        <f>'Tube P'!F21</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW23" s="71"/>
-    </row>
-    <row r="24" spans="1:49">
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="53">
         <v>21</v>
       </c>
@@ -23280,8 +21988,8 @@
         <v>F6</v>
       </c>
       <c r="AD24" s="67">
-        <f>'Tube I'!F22</f>
-        <v>1.4218229090000012</v>
+        <f>'Tube J'!F22</f>
+        <v>1.4307562220000012</v>
       </c>
       <c r="AE24" s="68">
         <v>8.5553563096441534E-2</v>
@@ -23308,44 +22016,8 @@
       <c r="AK24" s="68">
         <v>7.2336361404271035E-2</v>
       </c>
-      <c r="AL24" s="66" t="str">
-        <f>'Tube M'!G22</f>
-        <v>E3</v>
-      </c>
-      <c r="AM24" s="67">
-        <f>'Tube M'!F22</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN24" s="68"/>
-      <c r="AO24" s="66" t="str">
-        <f>'Tube N'!G22</f>
-        <v>F6</v>
-      </c>
-      <c r="AP24" s="67">
-        <f>'Tube N'!F22</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="66" t="str">
-        <f>'Tube O'!G22</f>
-        <v>A9</v>
-      </c>
-      <c r="AS24" s="67">
-        <f>'Tube O'!F22</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="66" t="str">
-        <f>'Tube P'!G22</f>
-        <v>G11</v>
-      </c>
-      <c r="AV24" s="67">
-        <f>'Tube P'!F22</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW24" s="68"/>
-    </row>
-    <row r="25" spans="1:49" ht="13" thickBot="1">
+    </row>
+    <row r="25" spans="1:37" ht="13" thickBot="1">
       <c r="A25" s="53">
         <v>22</v>
       </c>
@@ -23453,8 +22125,8 @@
         <v>E6</v>
       </c>
       <c r="AD25" s="67">
-        <f>'Tube I'!F23</f>
-        <v>1.2141985090000009</v>
+        <f>'Tube J'!F23</f>
+        <v>1.2143897419999998</v>
       </c>
       <c r="AE25" s="68">
         <v>-9.1127643156254708E-3</v>
@@ -23481,44 +22153,8 @@
       <c r="AK25" s="68">
         <v>2.4605725697834511E-2</v>
       </c>
-      <c r="AL25" s="66" t="str">
-        <f>'Tube M'!G23</f>
-        <v>F3</v>
-      </c>
-      <c r="AM25" s="67">
-        <f>'Tube M'!F23</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AN25" s="68"/>
-      <c r="AO25" s="86" t="str">
-        <f>'Tube N'!G23</f>
-        <v>E6</v>
-      </c>
-      <c r="AP25" s="67">
-        <f>'Tube N'!F23</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AQ25" s="85"/>
-      <c r="AR25" s="66" t="str">
-        <f>'Tube O'!G23</f>
-        <v>B9</v>
-      </c>
-      <c r="AS25" s="67">
-        <f>'Tube O'!F23</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AT25" s="85"/>
-      <c r="AU25" s="66" t="str">
-        <f>'Tube P'!G23</f>
-        <v>H11</v>
-      </c>
-      <c r="AV25" s="67">
-        <f>'Tube P'!F23</f>
-        <v>-13.63998868</v>
-      </c>
-      <c r="AW25" s="77"/>
-    </row>
-    <row r="26" spans="1:49" ht="13" thickTop="1">
+    </row>
+    <row r="26" spans="1:37" ht="13" thickTop="1">
       <c r="B26" s="70"/>
       <c r="C26" s="78" t="s">
         <v>190</v>
@@ -23615,40 +22251,8 @@
         <f>SUM(AK5:AK25)*40/TubeLoading!J40*100</f>
         <v>55.306942035093876</v>
       </c>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN26" s="90" t="e">
-        <f>SUM(AN5:AN25)*40/TubeLoading!J41*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AO26" s="70"/>
-      <c r="AP26" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ26" s="79" t="e">
-        <f>SUM(AQ5:AQ25)*40/TubeLoading!J42*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AR26" s="88"/>
-      <c r="AS26" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT26" s="79" t="e">
-        <f>SUM(AT5:AT25)*40/TubeLoading!J43*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AU26" s="80"/>
-      <c r="AV26" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW26" s="79" t="e">
-        <f>SUM(AW5:AW25)*40/TubeLoading!J44*100</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49">
+    </row>
+    <row r="27" spans="1:37">
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
@@ -23662,7 +22266,7 @@
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
     </row>
-    <row r="28" spans="1:49">
+    <row r="28" spans="1:37">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -23676,13 +22280,13 @@
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
     </row>
-    <row r="29" spans="1:49">
+    <row r="29" spans="1:37">
       <c r="A29" s="59"/>
     </row>
-    <row r="30" spans="1:49">
+    <row r="30" spans="1:37">
       <c r="A30" s="59"/>
     </row>
-    <row r="31" spans="1:49">
+    <row r="31" spans="1:37">
       <c r="A31" s="59"/>
     </row>
     <row r="55" spans="1:13">
@@ -23746,23 +22350,19 @@
       <c r="A86" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="AU2:AW2"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
     <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -23780,19 +22380,19 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.87890625" customWidth="1"/>
-    <col min="2" max="2" width="8.87890625" customWidth="1"/>
-    <col min="3" max="3" width="87.1171875" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="3" max="3" width="87.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="13">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50.7">
+    <row r="2" spans="1:6" ht="50">
       <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
@@ -23834,7 +22434,7 @@
         <v>1550000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.35">
+    <row r="5" spans="1:6" ht="15.5">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -23852,7 +22452,7 @@
         <v>1330000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.35">
+    <row r="6" spans="1:6" ht="15.5">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -23869,7 +22469,7 @@
         <v>1220000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.35">
+    <row r="7" spans="1:6" ht="15.5">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -23887,7 +22487,7 @@
         <v>1170000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.35">
+    <row r="8" spans="1:6" ht="15.5">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -23904,7 +22504,7 @@
         <v>1140000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.35">
+    <row r="9" spans="1:6" ht="15.5">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -23940,7 +22540,7 @@
         <v>1120000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.35">
+    <row r="11" spans="1:6" ht="15.5">
       <c r="A11" s="3" t="s">
         <v>37</v>
       </c>
@@ -24007,11 +22607,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.35">
+    <row r="17" spans="1:4" ht="15.5">
       <c r="A17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="15.35">
+    <row r="18" spans="1:4" ht="15.5">
       <c r="C18" s="11" t="s">
         <v>38</v>
       </c>
@@ -24020,7 +22620,7 @@
         <v>19.166399999999982</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.35">
+    <row r="19" spans="1:4" ht="15.5">
       <c r="C19" s="11" t="s">
         <v>2</v>
       </c>
@@ -24029,7 +22629,7 @@
         <v>2.1295999999999977</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.35">
+    <row r="20" spans="1:4" ht="15.5">
       <c r="C20" s="11" t="s">
         <v>3</v>
       </c>
@@ -24038,126 +22638,126 @@
         <v>108.31629022640612</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.35">
+    <row r="22" spans="1:4" ht="15.5">
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:4" ht="15.35">
+    <row r="23" spans="1:4" ht="15.5">
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="13">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.35">
+    <row r="28" spans="1:4" ht="15.5">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15.35">
+    <row r="29" spans="1:4" ht="15.5">
       <c r="A29" s="3"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15.35">
+    <row r="30" spans="1:4" ht="15.5">
       <c r="A30" s="3"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15.35">
+    <row r="31" spans="1:4" ht="15.5">
       <c r="A31" s="3"/>
       <c r="B31" s="7"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15.35">
+    <row r="32" spans="1:4" ht="15.5">
       <c r="A32" s="3"/>
       <c r="C32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="15.35">
+    <row r="33" spans="1:12" ht="15.5">
       <c r="A33" s="3"/>
       <c r="C33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="15.35">
+    <row r="34" spans="1:12" ht="15.5">
       <c r="A34" s="3"/>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="15.35">
+    <row r="35" spans="1:12" ht="15.5">
       <c r="A35" s="3"/>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="15.35">
+    <row r="36" spans="1:12" ht="15.5">
       <c r="A36" s="3"/>
       <c r="C36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="15.35">
+    <row r="37" spans="1:12" ht="15.5">
       <c r="A37" s="3"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="15.35">
+    <row r="38" spans="1:12" ht="15.5">
       <c r="A38" s="3"/>
       <c r="C38" s="4"/>
     </row>
-    <row r="39" spans="1:12" ht="15.35">
+    <row r="39" spans="1:12" ht="15.5">
       <c r="A39" s="3"/>
       <c r="C39" s="4"/>
     </row>
-    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.35">
+    <row r="40" spans="1:12" s="18" customFormat="1" ht="15.5">
       <c r="A40" s="17"/>
       <c r="C40" s="19"/>
     </row>
-    <row r="41" spans="1:12" ht="15.35">
+    <row r="41" spans="1:12" ht="15.5">
       <c r="A41" s="3"/>
       <c r="C41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="15.35">
+    <row r="42" spans="1:12" ht="15.5">
       <c r="A42" s="3"/>
       <c r="C42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="15.35">
+    <row r="43" spans="1:12" ht="15.5">
       <c r="A43" s="3"/>
       <c r="C43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="15.35">
+    <row r="44" spans="1:12" ht="15.5">
       <c r="A44" s="3"/>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="15.35">
+    <row r="45" spans="1:12" ht="15.5">
       <c r="A45" s="3"/>
       <c r="C45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="15.35">
+    <row r="46" spans="1:12" ht="15.5">
       <c r="A46" s="3"/>
       <c r="C46" s="11"/>
     </row>
-    <row r="47" spans="1:12" ht="15.35">
+    <row r="47" spans="1:12" ht="15.5">
       <c r="C47" s="11"/>
       <c r="K47" s="20"/>
       <c r="L47" s="20"/>
     </row>
-    <row r="48" spans="1:12" ht="15.35">
+    <row r="48" spans="1:12" ht="15.5">
       <c r="C48" s="11"/>
     </row>
-    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.35">
+    <row r="49" spans="3:12" s="20" customFormat="1" ht="15.5">
       <c r="C49" s="21"/>
       <c r="K49"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12" ht="15.35">
+    <row r="50" spans="3:12" ht="15.5">
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="3:12">
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="3:12" ht="15.35">
+    <row r="52" spans="3:12" ht="15.5">
       <c r="C52" s="11"/>
       <c r="D52" s="14"/>
     </row>
-    <row r="53" spans="3:12" ht="15.35">
+    <row r="53" spans="3:12" ht="15.5">
       <c r="C53" s="11"/>
       <c r="D53" s="14"/>
     </row>
-    <row r="54" spans="3:12" ht="15.35">
+    <row r="54" spans="3:12" ht="15.5">
       <c r="C54" s="11"/>
       <c r="D54" s="14"/>
     </row>
-    <row r="55" spans="3:12" ht="15.35">
+    <row r="55" spans="3:12" ht="15.5">
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="3:12">
@@ -24179,19 +22779,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="11.41015625" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="12" width="11.41015625" customWidth="1"/>
-    <col min="13" max="13" width="12.29296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.36328125" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="13">
       <c r="A1" s="3" t="s">
         <v>54</v>
       </c>
@@ -24260,7 +22860,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="13">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -24353,7 +22953,7 @@
         <v>5.2312881344799873</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="13">
       <c r="A19" s="31">
         <v>4.3</v>
       </c>
@@ -24594,7 +23194,7 @@
       <c r="B27" s="16"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="1:11" ht="38.35" thickBot="1">
+    <row r="28" spans="1:11" ht="39.5" thickBot="1">
       <c r="A28" s="97" t="s">
         <v>43</v>
       </c>
@@ -24629,7 +23229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.7">
+    <row r="29" spans="1:11" ht="14">
       <c r="A29" s="38" t="s">
         <v>138</v>
       </c>
@@ -24711,7 +23311,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="13.7">
+    <row r="31" spans="1:11" ht="14">
       <c r="A31" s="38" t="s">
         <v>140</v>
       </c>
@@ -24752,7 +23352,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="13.7">
+    <row r="32" spans="1:11" ht="14">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -24793,7 +23393,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="13.7">
+    <row r="33" spans="1:11" ht="14">
       <c r="A33" s="38" t="s">
         <v>142</v>
       </c>
@@ -24875,7 +23475,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="13.7">
+    <row r="35" spans="1:11" ht="14">
       <c r="A35" s="38" t="s">
         <v>144</v>
       </c>
@@ -24916,7 +23516,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="13.7">
+    <row r="36" spans="1:11" ht="14">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -24957,7 +23557,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.7">
+    <row r="37" spans="1:11" ht="14">
       <c r="A37" s="38" t="s">
         <v>149</v>
       </c>
@@ -24998,7 +23598,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="13.7">
+    <row r="38" spans="1:11" ht="14">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -25039,7 +23639,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.35">
+    <row r="39" spans="1:11" ht="14.5">
       <c r="A39" s="38" t="s">
         <v>151</v>
       </c>
@@ -25080,7 +23680,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="13.7">
+    <row r="40" spans="1:11" ht="14">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -25121,7 +23721,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="13.7">
+    <row r="41" spans="1:11" ht="14">
       <c r="A41" s="38" t="s">
         <v>163</v>
       </c>
@@ -25154,7 +23754,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="13.7">
+    <row r="42" spans="1:11" ht="14">
       <c r="A42" t="s">
         <v>164</v>
       </c>
@@ -25186,7 +23786,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="13.7">
+    <row r="43" spans="1:11" ht="14">
       <c r="A43" s="38" t="s">
         <v>165</v>
       </c>
@@ -25219,7 +23819,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="13.7">
+    <row r="44" spans="1:11" ht="14">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -25251,7 +23851,7 @@
         <v>0.92555553220798603</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="13.7">
+    <row r="45" spans="1:11" ht="14">
       <c r="A45" s="45" t="s">
         <v>33</v>
       </c>
@@ -25315,9 +23915,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -25932,9 +24532,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -26549,9 +25149,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -27166,9 +25766,9 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -27783,9 +26383,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>
@@ -28400,9 +27000,9 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
+  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="12.5"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.35">
+    <row r="1" spans="1:13" ht="26">
       <c r="A1" s="32" t="s">
         <v>55</v>
       </c>

--- a/data/fractionation/221214 Batch 133 Summary.xlsx
+++ b/data/fractionation/221214 Batch 133 Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26339E10-744F-40AC-9BAB-25E8E8F9C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28742F3-369C-4B7D-819C-E343C7F7D176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="22" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="210">
   <si>
     <t>calculated density p(20)</t>
   </si>
@@ -678,9 +678,6 @@
   </si>
   <si>
     <t>DNA (ng/ul)</t>
-  </si>
-  <si>
-    <t>E</t>
   </si>
   <si>
     <t>F</t>
@@ -1376,6 +1373,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1383,15 +1389,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2301,132 +2298,17 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$O$5:$O$23</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.7701128400000012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7657418000000025</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7602779999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7526286800000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7460721200000027</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.739515560000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7340517600000016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7285879600000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7220314000000023</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7154748400000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7100110400000013</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7058312330000014</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6992746729999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6938108730000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6872543130000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6808889860000011</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6743324259999994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6612193060000013</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6076740659999995</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Summary!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$P$5:$P$23</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.9391385053911442E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.831032440563334E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.4154953964657048E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22533610430157811</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.37477495000728883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75780551889748649</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7405849060160321</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.9275928938810152</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.1658953846892928</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.5973919674452288</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3054180584630726</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.2385948039325978</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.57865861680473907</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.36568484317493616</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.16153769103544138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.5667991046156379E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0787336657415514E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5747037817537213E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.605869867627217E-2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,7 +2352,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$R$5:$R$23</c:f>
+              <c:f>Summary!$O$5:$O$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2536,7 +2418,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$S$5:$S$23</c:f>
+              <c:f>Summary!$P$5:$P$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2645,7 +2527,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$U$5:$U$23</c:f>
+              <c:f>Summary!$R$5:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2711,7 +2593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$V$5:$V$23</c:f>
+              <c:f>Summary!$S$5:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2820,7 +2702,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$X$5:$X$23</c:f>
+              <c:f>Summary!$U$5:$U$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -2886,7 +2768,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$Y$5:$Y$23</c:f>
+              <c:f>Summary!$V$5:$V$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -4220,75 +4102,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$O$4:$O$25</c:f>
+              <c:f>Summary!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.7710143670000011</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7701128400000012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7657418000000025</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7602779999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7526286800000008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7460721200000027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.739515560000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7340517600000016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7285879600000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7220314000000023</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7154748400000006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.7100110400000013</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.7058312330000014</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.6992746729999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.6938108730000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6872543130000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6808889860000011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6743324259999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6612193060000013</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.6076740659999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4525021460000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2219297860000022</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4407,7 +4226,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$R$4:$R$25</c:f>
+              <c:f>Summary!$O$4:$O$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4600,7 +4419,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$U$4:$U$25</c:f>
+              <c:f>Summary!$R$4:$R$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4793,7 +4612,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$X$4:$X$25</c:f>
+              <c:f>Summary!$U$4:$U$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -4986,7 +4805,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5179,7 +4998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5372,7 +5191,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AG$4:$AG$25</c:f>
+              <c:f>Summary!$AD$4:$AD$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5565,7 +5384,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AJ$4:$AJ$25</c:f>
+              <c:f>Summary!$AG$4:$AG$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6640,7 +6459,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AA$4:$AA$25</c:f>
+              <c:f>Summary!$X$4:$X$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6715,7 +6534,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AB$4:$AB$25</c:f>
+              <c:f>Summary!$Y$4:$Y$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6833,7 +6652,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AD$4:$AD$25</c:f>
+              <c:f>Summary!$AA$4:$AA$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6908,7 +6727,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AE$4:$AE$25</c:f>
+              <c:f>Summary!$AB$4:$AB$25</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="22"/>
@@ -7026,7 +6845,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AG$5:$AG$23</c:f>
+              <c:f>Summary!$AD$5:$AD$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7092,7 +6911,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AH$5:$AH$23</c:f>
+              <c:f>Summary!$AE$5:$AE$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7201,7 +7020,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Summary!$AJ$5:$AJ$23</c:f>
+              <c:f>Summary!$AG$5:$AG$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -7267,7 +7086,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Summary!$AK$5:$AK$23</c:f>
+              <c:f>Summary!$AH$5:$AH$23</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="19"/>
@@ -9639,7 +9458,7 @@
       <xdr:rowOff>61079</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>277436</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>93134</xdr:rowOff>
@@ -9669,13 +9488,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>541866</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>260349</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>103716</xdr:rowOff>
@@ -10109,10 +9928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E138FBF1-D534-4F7E-950C-764D2E6B8C19}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -10130,44 +9949,44 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>194</v>
-      </c>
       <c r="E4" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>201</v>
-      </c>
       <c r="I4" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10180,7 +9999,7 @@
         <v>Tube A</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D5" s="64">
         <v>44909</v>
@@ -10210,7 +10029,7 @@
         <v>Tube B</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D6" s="64">
         <v>44909</v>
@@ -10240,7 +10059,7 @@
         <v>Tube C</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D7" s="64">
         <v>44909</v>
@@ -10270,7 +10089,7 @@
         <v>Tube D</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D8" s="64">
         <v>44909</v>
@@ -10292,15 +10111,15 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="63">
-        <f>TubeLoading!F33</f>
-        <v>4011</v>
+        <f>TubeLoading!F34</f>
+        <v>3205</v>
       </c>
       <c r="B9" s="63" t="str">
-        <f>TubeLoading!A33</f>
-        <v>Tube E</v>
+        <f>TubeLoading!A34</f>
+        <v>Tube F</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="64">
         <v>44909</v>
@@ -10309,28 +10128,28 @@
         <v>114</v>
       </c>
       <c r="G9" s="63">
-        <f>TubeLoading!J33</f>
+        <f>TubeLoading!J34</f>
         <v>4000</v>
       </c>
       <c r="H9" s="50">
         <f>Summary!P26</f>
-        <v>26.628704569891344</v>
-      </c>
-      <c r="I9" s="65">
+        <v>57.662918331918334</v>
+      </c>
+      <c r="I9" s="50">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="63">
-        <f>TubeLoading!F34</f>
-        <v>3205</v>
+        <f>TubeLoading!F35</f>
+        <v>1465</v>
       </c>
       <c r="B10" s="63" t="str">
-        <f>TubeLoading!A34</f>
-        <v>Tube F</v>
+        <f>TubeLoading!A35</f>
+        <v>Tube G</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="64">
         <v>44909</v>
@@ -10339,28 +10158,28 @@
         <v>114</v>
       </c>
       <c r="G10" s="63">
-        <f>TubeLoading!J34</f>
+        <f>TubeLoading!J35</f>
         <v>4000</v>
       </c>
       <c r="H10" s="50">
         <f>Summary!S26</f>
-        <v>57.662918331918334</v>
-      </c>
-      <c r="I10" s="50">
+        <v>51.880488596434027</v>
+      </c>
+      <c r="I10" s="65">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="63">
-        <f>TubeLoading!F35</f>
-        <v>1465</v>
+        <f>TubeLoading!F36</f>
+        <v>1423</v>
       </c>
       <c r="B11" s="63" t="str">
-        <f>TubeLoading!A35</f>
-        <v>Tube G</v>
+        <f>TubeLoading!A36</f>
+        <v>Tube H</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="64">
         <v>44909</v>
@@ -10369,58 +10188,58 @@
         <v>114</v>
       </c>
       <c r="G11" s="63">
-        <f>TubeLoading!J35</f>
-        <v>4000</v>
+        <f>TubeLoading!J36</f>
+        <v>3999.9999999999995</v>
       </c>
       <c r="H11" s="50">
         <f>Summary!V26</f>
-        <v>51.880488596434027</v>
-      </c>
-      <c r="I11" s="65">
+        <v>50.608966076308725</v>
+      </c>
+      <c r="I11" s="50">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="63">
-        <f>TubeLoading!F36</f>
-        <v>1423</v>
+        <f>TubeLoading!F37</f>
+        <v>1784</v>
       </c>
       <c r="B12" s="63" t="str">
-        <f>TubeLoading!A36</f>
-        <v>Tube H</v>
+        <f>TubeLoading!A37</f>
+        <v>Tube I</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" s="64">
         <v>44909</v>
       </c>
       <c r="E12">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G12" s="63">
-        <f>TubeLoading!J36</f>
-        <v>3999.9999999999995</v>
+        <f>TubeLoading!J37</f>
+        <v>4000.0000000000005</v>
       </c>
       <c r="H12" s="50">
         <f>Summary!Y26</f>
-        <v>50.608966076308725</v>
-      </c>
-      <c r="I12" s="50">
+        <v>46.555184025455496</v>
+      </c>
+      <c r="I12" s="65">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="63">
-        <f>TubeLoading!F37</f>
-        <v>1784</v>
+        <f>TubeLoading!F38</f>
+        <v>2031</v>
       </c>
       <c r="B13" s="63" t="str">
-        <f>TubeLoading!A37</f>
-        <v>Tube I</v>
+        <f>TubeLoading!A38</f>
+        <v>Tube J</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="64">
         <v>44909</v>
@@ -10429,28 +10248,28 @@
         <v>136</v>
       </c>
       <c r="G13" s="63">
-        <f>TubeLoading!J37</f>
-        <v>4000.0000000000005</v>
+        <f>TubeLoading!J38</f>
+        <v>4000</v>
       </c>
       <c r="H13" s="50">
         <f>Summary!AB26</f>
-        <v>46.555184025455496</v>
-      </c>
-      <c r="I13" s="65">
+        <v>52.38979754643708</v>
+      </c>
+      <c r="I13" s="50">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="63">
-        <f>TubeLoading!F38</f>
-        <v>2031</v>
+        <f>TubeLoading!F39</f>
+        <v>1869</v>
       </c>
       <c r="B14" s="63" t="str">
-        <f>TubeLoading!A38</f>
-        <v>Tube J</v>
+        <f>TubeLoading!A39</f>
+        <v>Tube K</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D14" s="64">
         <v>44909</v>
@@ -10459,28 +10278,28 @@
         <v>136</v>
       </c>
       <c r="G14" s="63">
-        <f>TubeLoading!J38</f>
+        <f>TubeLoading!J39</f>
         <v>4000</v>
       </c>
       <c r="H14" s="50">
         <f>Summary!AE26</f>
-        <v>52.38979754643708</v>
-      </c>
-      <c r="I14" s="50">
+        <v>77.464564012012275</v>
+      </c>
+      <c r="I14" s="65">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="63">
-        <f>TubeLoading!F39</f>
-        <v>1869</v>
+        <f>TubeLoading!F40</f>
+        <v>3195</v>
       </c>
       <c r="B15" s="63" t="str">
-        <f>TubeLoading!A39</f>
-        <v>Tube K</v>
+        <f>TubeLoading!A40</f>
+        <v>Tube L</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D15" s="64">
         <v>44909</v>
@@ -10489,55 +10308,25 @@
         <v>136</v>
       </c>
       <c r="G15" s="63">
-        <f>TubeLoading!J39</f>
+        <f>TubeLoading!J40</f>
         <v>4000</v>
       </c>
       <c r="H15" s="50">
         <f>Summary!AH26</f>
-        <v>77.464564012012275</v>
-      </c>
-      <c r="I15" s="65">
+        <v>55.306942035093876</v>
+      </c>
+      <c r="I15" s="50">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="63">
-        <f>TubeLoading!F40</f>
-        <v>3195</v>
-      </c>
-      <c r="B16" s="63" t="str">
-        <f>TubeLoading!A40</f>
-        <v>Tube L</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="64">
-        <v>44909</v>
-      </c>
-      <c r="E16">
-        <v>136</v>
-      </c>
-      <c r="G16" s="63">
-        <f>TubeLoading!J40</f>
-        <v>4000</v>
-      </c>
-      <c r="H16" s="50">
-        <f>Summary!AK26</f>
-        <v>55.306942035093876</v>
-      </c>
-      <c r="I16" s="50">
-        <v>37</v>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -11595,7 +11384,7 @@
         <v>1.6915433960000019</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -11620,7 +11409,7 @@
         <v>1.6860795960000026</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -11645,7 +11434,7 @@
         <v>1.6808070290000021</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -11670,7 +11459,7 @@
         <v>1.6742504690000004</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -11695,7 +11484,7 @@
         <v>1.6589518290000029</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -11720,7 +11509,7 @@
         <v>1.5999427890000018</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -11745,7 +11534,7 @@
         <v>1.4338432690000005</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -11770,7 +11559,7 @@
         <v>1.204363669000001</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -14060,7 +13849,7 @@
         <v>1.6924995610000018</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -14085,7 +13874,7 @@
         <v>1.6872269940000013</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -14110,7 +13899,7 @@
         <v>1.6806704340000032</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -14135,7 +13924,7 @@
         <v>1.6752066340000002</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -14160,7 +13949,7 @@
         <v>1.6610007540000034</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -14185,7 +13974,7 @@
         <v>1.6008989540000016</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -14210,7 +13999,7 @@
         <v>1.4490053140000025</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -14235,7 +14024,7 @@
         <v>1.2686999140000026</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -17420,7 +17209,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -17441,7 +17230,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -17462,7 +17251,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -17483,7 +17272,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -17504,7 +17293,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -17525,7 +17314,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -17546,7 +17335,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -17567,7 +17356,7 @@
         <v>-13.63998868</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -18795,10 +18584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA4E3B1-5772-4D1F-AF5A-033072A123CA}">
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AH86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI37"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12.5"/>
@@ -18813,9 +18602,9 @@
     <col min="12" max="16384" width="10.90625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="13" thickTop="1">
+    <row r="1" spans="1:34" ht="13" thickTop="1">
       <c r="A1" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="110">
         <f>TubeLoading!F29</f>
@@ -18866,281 +18655,255 @@
         <v>4012-conc</v>
       </c>
       <c r="N1" s="109">
-        <f>TubeLoading!F33</f>
-        <v>4011</v>
-      </c>
-      <c r="O1" s="111" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"density")</f>
-        <v>4011-density</v>
-      </c>
-      <c r="P1" s="112" t="str">
-        <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$33,"conc")</f>
-        <v>4011-conc</v>
-      </c>
-      <c r="Q1" s="109">
         <f>TubeLoading!F34</f>
         <v>3205</v>
       </c>
-      <c r="R1" s="111" t="str">
+      <c r="O1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"density")</f>
         <v>3205-density</v>
       </c>
-      <c r="S1" s="112" t="str">
+      <c r="P1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$34,"conc")</f>
         <v>3205-conc</v>
       </c>
-      <c r="T1" s="109">
+      <c r="Q1" s="109">
         <f>TubeLoading!F35</f>
         <v>1465</v>
       </c>
-      <c r="U1" s="111" t="str">
+      <c r="R1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"density")</f>
         <v>1465-density</v>
       </c>
-      <c r="V1" s="112" t="str">
+      <c r="S1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$35,"conc")</f>
         <v>1465-conc</v>
       </c>
-      <c r="W1" s="109">
+      <c r="T1" s="109">
         <f>TubeLoading!F36</f>
         <v>1423</v>
       </c>
-      <c r="X1" s="111" t="str">
+      <c r="U1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"density")</f>
         <v>1423-density</v>
       </c>
-      <c r="Y1" s="112" t="str">
+      <c r="V1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$36,"conc")</f>
         <v>1423-conc</v>
       </c>
-      <c r="Z1" s="109">
+      <c r="W1" s="109">
         <f>TubeLoading!F37</f>
         <v>1784</v>
       </c>
-      <c r="AA1" s="111" t="str">
+      <c r="X1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"density")</f>
         <v>1784-density</v>
       </c>
-      <c r="AB1" s="112" t="str">
+      <c r="Y1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$37,"conc")</f>
         <v>1784-conc</v>
       </c>
-      <c r="AC1" s="109">
+      <c r="Z1" s="109">
         <f>TubeLoading!F38</f>
         <v>2031</v>
       </c>
-      <c r="AD1" s="111" t="str">
+      <c r="AA1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"density")</f>
         <v>2031-density</v>
       </c>
-      <c r="AE1" s="112" t="str">
+      <c r="AB1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$38,"conc")</f>
         <v>2031-conc</v>
       </c>
-      <c r="AF1" s="109">
+      <c r="AC1" s="109">
         <f>TubeLoading!F39</f>
         <v>1869</v>
       </c>
-      <c r="AG1" s="111" t="str">
+      <c r="AD1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"density")</f>
         <v>1869-density</v>
       </c>
-      <c r="AH1" s="112" t="str">
+      <c r="AE1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$39,"conc")</f>
         <v>1869-conc</v>
       </c>
-      <c r="AI1" s="109">
+      <c r="AF1" s="109">
         <f>TubeLoading!F40</f>
         <v>3195</v>
       </c>
-      <c r="AJ1" s="111" t="str">
+      <c r="AG1" s="111" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"density")</f>
         <v>3195-density</v>
       </c>
-      <c r="AK1" s="112" t="str">
+      <c r="AH1" s="112" t="str">
         <f>_xlfn.TEXTJOIN("-",TRUE,TubeLoading!$F$40,"conc")</f>
         <v>3195-conc</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:34">
       <c r="A2" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="113" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="116" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="113" t="s">
         <v>170</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="116" t="s">
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="113" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="116" t="s">
+      <c r="I2" s="114"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="113" t="s">
         <v>172</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="113" t="s">
+      <c r="L2" s="114"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="114"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="113" t="s">
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="R2" s="114"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="113" t="s">
+      <c r="R2" s="117"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="U2" s="114"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="113" t="s">
+      <c r="U2" s="117"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="116" t="s">
+        <v>202</v>
+      </c>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="113" t="s">
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="113" t="s">
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="115"/>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="118"/>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="59" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>189</v>
       </c>
       <c r="D3" s="62" t="s">
         <v>173</v>
       </c>
       <c r="E3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="F3" s="61" t="s">
-        <v>189</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>173</v>
       </c>
       <c r="H3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>189</v>
       </c>
       <c r="J3" s="62" t="s">
         <v>173</v>
       </c>
       <c r="K3" s="60" t="s">
+        <v>187</v>
+      </c>
+      <c r="L3" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="L3" s="61" t="s">
-        <v>189</v>
       </c>
       <c r="M3" s="62" t="s">
         <v>173</v>
       </c>
       <c r="N3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="O3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="O3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="P3" s="83" t="s">
         <v>173</v>
       </c>
       <c r="Q3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="R3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="R3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="S3" s="83" t="s">
         <v>173</v>
       </c>
       <c r="T3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="U3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="V3" s="83" t="s">
         <v>173</v>
       </c>
       <c r="W3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="X3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="X3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="Y3" s="83" t="s">
         <v>173</v>
       </c>
       <c r="Z3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="AA3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="AB3" s="83" t="s">
         <v>173</v>
       </c>
       <c r="AC3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="AD3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="AE3" s="83" t="s">
         <v>173</v>
       </c>
       <c r="AF3" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG3" s="82" t="s">
         <v>188</v>
-      </c>
-      <c r="AG3" s="82" t="s">
-        <v>189</v>
       </c>
       <c r="AH3" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="AI3" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="AJ3" s="82" t="s">
-        <v>189</v>
-      </c>
-      <c r="AK3" s="83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" s="53">
         <v>1</v>
       </c>
@@ -19189,95 +18952,84 @@
         <v>-6.0501928980327462E-2</v>
       </c>
       <c r="N4" s="66" t="str">
-        <f>'Tube E'!G2</f>
-        <v>A1</v>
-      </c>
-      <c r="O4" s="67">
-        <f>'Tube E'!F2</f>
-        <v>1.7710143670000011</v>
-      </c>
-      <c r="P4" s="68">
-        <v>-2.4866098774784646E-2</v>
-      </c>
-      <c r="Q4" s="66" t="str">
         <f>'Tube F'!G2</f>
         <v>G3</v>
       </c>
-      <c r="R4" s="67">
+      <c r="O4" s="67">
         <f>'Tube F'!F2</f>
         <v>1.7695937790000027</v>
       </c>
-      <c r="S4" s="68">
+      <c r="P4" s="68">
         <v>-3.4449788637435315E-2</v>
       </c>
-      <c r="T4" s="66" t="str">
+      <c r="Q4" s="66" t="str">
         <f>'Tube G'!G2</f>
         <v>D6</v>
       </c>
-      <c r="U4" s="67">
+      <c r="R4" s="67">
         <f>'Tube G'!F2</f>
         <v>1.7647036780000001</v>
       </c>
-      <c r="V4" s="68">
+      <c r="S4" s="68">
         <v>-2.8162931693653886E-2</v>
       </c>
-      <c r="W4" s="66" t="str">
+      <c r="T4" s="66" t="str">
         <f>'Tube H'!G2</f>
         <v>C9</v>
       </c>
-      <c r="X4" s="67">
+      <c r="U4" s="67">
         <f>'Tube H'!F2</f>
         <v>1.762190330000001</v>
       </c>
-      <c r="Y4" s="68">
+      <c r="V4" s="68">
         <v>-1.9677666334818999E-2</v>
       </c>
-      <c r="Z4" s="66" t="str">
+      <c r="W4" s="66" t="str">
         <f>'Tube I'!G2</f>
         <v>A1</v>
       </c>
-      <c r="AA4" s="67">
+      <c r="X4" s="67">
         <f>'Tube I'!F2</f>
         <v>1.7758771490000012</v>
       </c>
-      <c r="AB4" s="68">
+      <c r="Y4" s="68">
         <v>-3.1344077659429488E-2</v>
       </c>
-      <c r="AC4" s="66" t="str">
+      <c r="Z4" s="66" t="str">
         <f>'Tube J'!G2</f>
         <v>G3</v>
       </c>
-      <c r="AD4" s="67">
+      <c r="AA4" s="67">
         <f>'Tube J'!F2</f>
         <v>1.7616712690000007</v>
       </c>
-      <c r="AE4" s="68">
+      <c r="AB4" s="68">
         <v>-4.2493337490999671E-2</v>
       </c>
-      <c r="AF4" s="66" t="str">
+      <c r="AC4" s="66" t="str">
         <f>'Tube K'!G2</f>
         <v>D6</v>
       </c>
-      <c r="AG4" s="67">
+      <c r="AD4" s="67">
         <f>'Tube K'!F2</f>
         <v>1.7653320150000003</v>
       </c>
-      <c r="AH4" s="68">
+      <c r="AE4" s="68">
         <v>-1.4844167844437746E-2</v>
       </c>
-      <c r="AI4" s="66" t="str">
+      <c r="AF4" s="66" t="str">
         <f>'Tube L'!G2</f>
         <v>C9</v>
       </c>
-      <c r="AJ4" s="67">
+      <c r="AG4" s="67">
         <f>'Tube L'!F2</f>
         <v>1.7569724010000023</v>
       </c>
-      <c r="AK4" s="68">
+      <c r="AH4" s="68">
         <v>-3.8284160058080711E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:34">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -19326,95 +19078,84 @@
         <v>-4.6137672032479454E-2</v>
       </c>
       <c r="N5" s="69" t="str">
-        <f>'Tube E'!G3</f>
-        <v>B1</v>
-      </c>
-      <c r="O5" s="70">
-        <f>'Tube E'!F3</f>
-        <v>1.7701128400000012</v>
-      </c>
-      <c r="P5" s="71">
-        <v>-1.9391385053911442E-2</v>
-      </c>
-      <c r="Q5" s="69" t="str">
         <f>'Tube F'!G3</f>
         <v>H3</v>
       </c>
-      <c r="R5" s="70">
+      <c r="O5" s="70">
         <f>'Tube F'!F3</f>
         <v>1.7685010190000021</v>
       </c>
-      <c r="S5" s="71">
+      <c r="P5" s="71">
         <v>-2.68972044790491E-2</v>
       </c>
-      <c r="T5" s="69" t="str">
+      <c r="Q5" s="69" t="str">
         <f>'Tube G'!G3</f>
         <v>C6</v>
       </c>
-      <c r="U5" s="70">
+      <c r="R5" s="70">
         <f>'Tube G'!F3</f>
         <v>1.7690747180000024</v>
       </c>
-      <c r="V5" s="71">
+      <c r="S5" s="71">
         <v>-2.1176295286363861E-2</v>
       </c>
-      <c r="W5" s="69" t="str">
+      <c r="T5" s="69" t="str">
         <f>'Tube H'!G3</f>
         <v>D9</v>
       </c>
-      <c r="X5" s="70">
+      <c r="U5" s="70">
         <f>'Tube H'!F3</f>
         <v>1.7645670830000011</v>
       </c>
-      <c r="Y5" s="71">
+      <c r="V5" s="71">
         <v>1.0456617169777265E-2</v>
       </c>
-      <c r="Z5" s="69" t="str">
+      <c r="W5" s="69" t="str">
         <f>'Tube I'!G3</f>
         <v>B1</v>
       </c>
-      <c r="AA5" s="70">
+      <c r="X5" s="70">
         <f>'Tube I'!F3</f>
         <v>1.769320589000003</v>
       </c>
-      <c r="AB5" s="71">
+      <c r="Y5" s="71">
         <v>-2.1180119975380121E-2</v>
       </c>
-      <c r="AC5" s="69" t="str">
+      <c r="Z5" s="69" t="str">
         <f>'Tube J'!G3</f>
         <v>H3</v>
       </c>
-      <c r="AD5" s="67">
+      <c r="AA5" s="67">
         <f>'Tube J'!F3</f>
         <v>1.7649495490000007</v>
       </c>
-      <c r="AE5" s="71">
+      <c r="AB5" s="71">
         <v>-3.5983297994610301E-2</v>
       </c>
-      <c r="AF5" s="69" t="str">
+      <c r="AC5" s="69" t="str">
         <f>'Tube K'!G3</f>
         <v>C6</v>
       </c>
-      <c r="AG5" s="70">
+      <c r="AD5" s="70">
         <f>'Tube K'!F3</f>
         <v>1.7675175349999996</v>
       </c>
-      <c r="AH5" s="71">
+      <c r="AE5" s="71">
         <v>-2.246898666096948E-2</v>
       </c>
-      <c r="AI5" s="69" t="str">
+      <c r="AF5" s="69" t="str">
         <f>'Tube L'!G3</f>
         <v>D9</v>
       </c>
-      <c r="AJ5" s="70">
+      <c r="AG5" s="70">
         <f>'Tube L'!F3</f>
         <v>1.7635289610000005</v>
       </c>
-      <c r="AK5" s="71">
+      <c r="AH5" s="71">
         <v>-2.4196140456215227E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:34">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -19463,95 +19204,84 @@
         <v>-6.2739916000444707E-2</v>
       </c>
       <c r="N6" s="69" t="str">
-        <f>'Tube E'!G4</f>
-        <v>C1</v>
-      </c>
-      <c r="O6" s="70">
-        <f>'Tube E'!F4</f>
-        <v>1.7657418000000025</v>
-      </c>
-      <c r="P6" s="71">
-        <v>-6.831032440563334E-3</v>
-      </c>
-      <c r="Q6" s="69" t="str">
         <f>'Tube F'!G4</f>
         <v>H4</v>
       </c>
-      <c r="R6" s="70">
+      <c r="O6" s="70">
         <f>'Tube F'!F4</f>
         <v>1.7652227390000004</v>
       </c>
-      <c r="S6" s="71">
+      <c r="P6" s="71">
         <v>-3.0314593167152664E-2</v>
       </c>
-      <c r="T6" s="69" t="str">
+      <c r="Q6" s="69" t="str">
         <f>'Tube G'!G4</f>
         <v>B6</v>
       </c>
-      <c r="U6" s="70">
+      <c r="R6" s="70">
         <f>'Tube G'!F4</f>
         <v>1.7647036780000001</v>
       </c>
-      <c r="V6" s="71">
+      <c r="S6" s="71">
         <v>-7.6613383343245751E-3</v>
       </c>
-      <c r="W6" s="69" t="str">
+      <c r="T6" s="69" t="str">
         <f>'Tube H'!G4</f>
         <v>E9</v>
       </c>
-      <c r="X6" s="70">
+      <c r="U6" s="70">
         <f>'Tube H'!F4</f>
         <v>1.7612888030000011</v>
       </c>
-      <c r="Y6" s="71">
+      <c r="V6" s="71">
         <v>1.5007358191758351E-2</v>
       </c>
-      <c r="Z6" s="69" t="str">
+      <c r="W6" s="69" t="str">
         <f>'Tube I'!G4</f>
         <v>C1</v>
       </c>
-      <c r="AA6" s="70">
+      <c r="X6" s="70">
         <f>'Tube I'!F4</f>
         <v>1.7638567890000001</v>
       </c>
-      <c r="AB6" s="71">
+      <c r="Y6" s="71">
         <v>-1.5710285440238003E-2</v>
       </c>
-      <c r="AC6" s="69" t="str">
+      <c r="Z6" s="69" t="str">
         <f>'Tube J'!G4</f>
         <v>H4</v>
       </c>
-      <c r="AD6" s="67">
+      <c r="AA6" s="67">
         <f>'Tube J'!F4</f>
         <v>1.7616712690000007</v>
       </c>
-      <c r="AE6" s="71">
+      <c r="AB6" s="71">
         <v>-4.0892241478493942E-2</v>
       </c>
-      <c r="AF6" s="69" t="str">
+      <c r="AC6" s="69" t="str">
         <f>'Tube K'!G4</f>
         <v>B6</v>
       </c>
-      <c r="AG6" s="70">
+      <c r="AD6" s="70">
         <f>'Tube K'!F4</f>
         <v>1.7642392550000014</v>
       </c>
-      <c r="AH6" s="71">
+      <c r="AE6" s="71">
         <v>-1.7819984615539172E-2</v>
       </c>
-      <c r="AI6" s="69" t="str">
+      <c r="AF6" s="69" t="str">
         <f>'Tube L'!G4</f>
         <v>E9</v>
       </c>
-      <c r="AJ6" s="70">
+      <c r="AG6" s="70">
         <f>'Tube L'!F4</f>
         <v>1.7602506810000005</v>
       </c>
-      <c r="AK6" s="71">
+      <c r="AH6" s="71">
         <v>-3.8876039620580304E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:34">
       <c r="A7" s="53">
         <v>4</v>
       </c>
@@ -19600,95 +19330,84 @@
         <v>-1.1309459445599379E-2</v>
       </c>
       <c r="N7" s="69" t="str">
-        <f>'Tube E'!G5</f>
-        <v>D1</v>
-      </c>
-      <c r="O7" s="70">
-        <f>'Tube E'!F5</f>
-        <v>1.7602779999999996</v>
-      </c>
-      <c r="P7" s="71">
-        <v>9.4154953964657048E-2</v>
-      </c>
-      <c r="Q7" s="69" t="str">
         <f>'Tube F'!G5</f>
         <v>G4</v>
       </c>
-      <c r="R7" s="70">
+      <c r="O7" s="70">
         <f>'Tube F'!F5</f>
         <v>1.7608516989999998</v>
       </c>
-      <c r="S7" s="71">
+      <c r="P7" s="71">
         <v>-1.0987496945235953E-2</v>
       </c>
-      <c r="T7" s="69" t="str">
+      <c r="Q7" s="69" t="str">
         <f>'Tube G'!G5</f>
         <v>A6</v>
       </c>
-      <c r="U7" s="70">
+      <c r="R7" s="70">
         <f>'Tube G'!F5</f>
         <v>1.7614253980000001</v>
       </c>
-      <c r="V7" s="71">
+      <c r="S7" s="71">
         <v>7.9086097717793093E-3</v>
       </c>
-      <c r="W7" s="69" t="str">
+      <c r="T7" s="69" t="str">
         <f>'Tube H'!G5</f>
         <v>F9</v>
       </c>
-      <c r="X7" s="70">
+      <c r="U7" s="70">
         <f>'Tube H'!F5</f>
         <v>1.7580105230000012</v>
       </c>
-      <c r="Y7" s="71">
+      <c r="V7" s="71">
         <v>0.11973521942166189</v>
       </c>
-      <c r="Z7" s="69" t="str">
+      <c r="W7" s="69" t="str">
         <f>'Tube I'!G5</f>
         <v>D1</v>
       </c>
-      <c r="AA7" s="70">
+      <c r="X7" s="70">
         <f>'Tube I'!F5</f>
         <v>1.7562074690000014</v>
       </c>
-      <c r="AB7" s="71">
+      <c r="Y7" s="71">
         <v>8.8559600889290824E-2</v>
       </c>
-      <c r="AC7" s="69" t="str">
+      <c r="Z7" s="69" t="str">
         <f>'Tube J'!G5</f>
         <v>G4</v>
       </c>
-      <c r="AD7" s="67">
+      <c r="AA7" s="67">
         <f>'Tube J'!F5</f>
         <v>1.7573002290000019</v>
       </c>
-      <c r="AE7" s="71">
+      <c r="AB7" s="71">
         <v>2.8208086511399961E-2</v>
       </c>
-      <c r="AF7" s="69" t="str">
+      <c r="AC7" s="69" t="str">
         <f>'Tube K'!G5</f>
         <v>A6</v>
       </c>
-      <c r="AG7" s="70">
+      <c r="AD7" s="70">
         <f>'Tube K'!F5</f>
         <v>1.7598682150000009</v>
       </c>
-      <c r="AH7" s="71">
+      <c r="AE7" s="71">
         <v>-1.7741417909827051E-4</v>
       </c>
-      <c r="AI7" s="69" t="str">
+      <c r="AF7" s="69" t="str">
         <f>'Tube L'!G5</f>
         <v>F9</v>
       </c>
-      <c r="AJ7" s="70">
+      <c r="AG7" s="70">
         <f>'Tube L'!F5</f>
         <v>1.7558796410000017</v>
       </c>
-      <c r="AK7" s="71">
+      <c r="AH7" s="71">
         <v>7.4150454266536832E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:34">
       <c r="A8" s="53">
         <v>5</v>
       </c>
@@ -19737,95 +19456,84 @@
         <v>0.15082381957718297</v>
       </c>
       <c r="N8" s="69" t="str">
-        <f>'Tube E'!G6</f>
-        <v>E1</v>
-      </c>
-      <c r="O8" s="70">
-        <f>'Tube E'!F6</f>
-        <v>1.7526286800000008</v>
-      </c>
-      <c r="P8" s="71">
-        <v>0.22533610430157811</v>
-      </c>
-      <c r="Q8" s="69" t="str">
         <f>'Tube F'!G6</f>
         <v>F4</v>
       </c>
-      <c r="R8" s="70">
+      <c r="O8" s="70">
         <f>'Tube F'!F6</f>
         <v>1.7542951390000017</v>
       </c>
-      <c r="S8" s="71">
+      <c r="P8" s="71">
         <v>7.0579476280577202E-2</v>
       </c>
-      <c r="T8" s="69" t="str">
+      <c r="Q8" s="69" t="str">
         <f>'Tube G'!G6</f>
         <v>A7</v>
       </c>
-      <c r="U8" s="70">
+      <c r="R8" s="70">
         <f>'Tube G'!F6</f>
         <v>1.7561528310000014</v>
       </c>
-      <c r="V8" s="71">
+      <c r="S8" s="71">
         <v>0.12248297458432857</v>
       </c>
-      <c r="W8" s="69" t="str">
+      <c r="T8" s="69" t="str">
         <f>'Tube H'!G6</f>
         <v>G9</v>
       </c>
-      <c r="X8" s="70">
+      <c r="U8" s="70">
         <f>'Tube H'!F6</f>
         <v>1.7503612030000024</v>
       </c>
-      <c r="Y8" s="71">
+      <c r="V8" s="71">
         <v>0.6643892033558626</v>
       </c>
-      <c r="Z8" s="69" t="str">
+      <c r="W8" s="69" t="str">
         <f>'Tube I'!G6</f>
         <v>E1</v>
       </c>
-      <c r="AA8" s="70">
+      <c r="X8" s="70">
         <f>'Tube I'!F6</f>
         <v>1.7496509090000014</v>
       </c>
-      <c r="AB8" s="71">
+      <c r="Y8" s="71">
         <v>0.32345037378233504</v>
       </c>
-      <c r="AC8" s="69" t="str">
+      <c r="Z8" s="69" t="str">
         <f>'Tube J'!G6</f>
         <v>F4</v>
       </c>
-      <c r="AD8" s="67">
+      <c r="AA8" s="67">
         <f>'Tube J'!F6</f>
         <v>1.750743669000002</v>
       </c>
-      <c r="AE8" s="71">
+      <c r="AB8" s="71">
         <v>0.4732448303453749</v>
       </c>
-      <c r="AF8" s="69" t="str">
+      <c r="AC8" s="69" t="str">
         <f>'Tube K'!G6</f>
         <v>A7</v>
       </c>
-      <c r="AG8" s="70">
+      <c r="AD8" s="70">
         <f>'Tube K'!F6</f>
         <v>1.7565899350000009</v>
       </c>
-      <c r="AH8" s="71">
+      <c r="AE8" s="71">
         <v>0.18212028995262197</v>
       </c>
-      <c r="AI8" s="69" t="str">
+      <c r="AF8" s="69" t="str">
         <f>'Tube L'!G6</f>
         <v>G9</v>
       </c>
-      <c r="AJ8" s="70">
+      <c r="AG8" s="70">
         <f>'Tube L'!F6</f>
         <v>1.7504158410000024</v>
       </c>
-      <c r="AK8" s="71">
+      <c r="AH8" s="71">
         <v>0.15337976047986368</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:34">
       <c r="A9" s="53">
         <v>6</v>
       </c>
@@ -19874,95 +19582,84 @@
         <v>0.56853750532997949</v>
       </c>
       <c r="N9" s="69" t="str">
-        <f>'Tube E'!G7</f>
-        <v>F1</v>
-      </c>
-      <c r="O9" s="70">
-        <f>'Tube E'!F7</f>
-        <v>1.7460721200000027</v>
-      </c>
-      <c r="P9" s="71">
-        <v>0.37477495000728883</v>
-      </c>
-      <c r="Q9" s="69" t="str">
         <f>'Tube F'!G7</f>
         <v>E4</v>
       </c>
-      <c r="R9" s="70">
+      <c r="O9" s="70">
         <f>'Tube F'!F7</f>
         <v>1.7477385790000017</v>
       </c>
-      <c r="S9" s="71">
+      <c r="P9" s="71">
         <v>0.32510497640241992</v>
       </c>
-      <c r="T9" s="69" t="str">
+      <c r="Q9" s="69" t="str">
         <f>'Tube G'!G7</f>
         <v>B7</v>
       </c>
-      <c r="U9" s="70">
+      <c r="R9" s="70">
         <f>'Tube G'!F7</f>
         <v>1.7506890310000021</v>
       </c>
-      <c r="V9" s="71">
+      <c r="S9" s="71">
         <v>0.50597050083471917</v>
       </c>
-      <c r="W9" s="69" t="str">
+      <c r="T9" s="69" t="str">
         <f>'Tube H'!G7</f>
         <v>H9</v>
       </c>
-      <c r="X9" s="70">
+      <c r="U9" s="70">
         <f>'Tube H'!F7</f>
         <v>1.7448974029999995</v>
       </c>
-      <c r="Y9" s="72">
+      <c r="V9" s="72">
         <v>1.2977978421571879</v>
       </c>
-      <c r="Z9" s="69" t="str">
+      <c r="W9" s="69" t="str">
         <f>'Tube I'!G7</f>
         <v>F1</v>
       </c>
-      <c r="AA9" s="70">
+      <c r="X9" s="70">
         <f>'Tube I'!F7</f>
         <v>1.7441871090000003</v>
       </c>
-      <c r="AB9" s="71">
+      <c r="Y9" s="71">
         <v>0.72983050606837052</v>
       </c>
-      <c r="AC9" s="69" t="str">
+      <c r="Z9" s="69" t="str">
         <f>'Tube J'!G7</f>
         <v>E4</v>
       </c>
-      <c r="AD9" s="67">
+      <c r="AA9" s="67">
         <f>'Tube J'!F7</f>
         <v>1.7441871090000003</v>
       </c>
-      <c r="AE9" s="71">
+      <c r="AB9" s="71">
         <v>1.1729607410854916</v>
       </c>
-      <c r="AF9" s="69" t="str">
+      <c r="AC9" s="69" t="str">
         <f>'Tube K'!G7</f>
         <v>B7</v>
       </c>
-      <c r="AG9" s="70">
+      <c r="AD9" s="70">
         <f>'Tube K'!F7</f>
         <v>1.7500333750000028</v>
       </c>
-      <c r="AH9" s="71">
+      <c r="AE9" s="71">
         <v>0.64558878966719402</v>
       </c>
-      <c r="AI9" s="69" t="str">
+      <c r="AF9" s="69" t="str">
         <f>'Tube L'!G7</f>
         <v>H9</v>
       </c>
-      <c r="AJ9" s="70">
+      <c r="AG9" s="70">
         <f>'Tube L'!F7</f>
         <v>1.7449520410000012</v>
       </c>
-      <c r="AK9" s="71">
+      <c r="AH9" s="71">
         <v>0.4425565862580525</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:34">
       <c r="A10" s="53">
         <v>7</v>
       </c>
@@ -20011,95 +19708,84 @@
         <v>1.9105368668838925</v>
       </c>
       <c r="N10" s="69" t="str">
-        <f>'Tube E'!G8</f>
-        <v>G1</v>
-      </c>
-      <c r="O10" s="70">
-        <f>'Tube E'!F8</f>
-        <v>1.739515560000001</v>
-      </c>
-      <c r="P10" s="71">
-        <v>0.75780551889748649</v>
-      </c>
-      <c r="Q10" s="69" t="str">
         <f>'Tube F'!G8</f>
         <v>D4</v>
       </c>
-      <c r="R10" s="70">
+      <c r="O10" s="70">
         <f>'Tube F'!F8</f>
         <v>1.741182019</v>
       </c>
-      <c r="S10" s="71">
+      <c r="P10" s="71">
         <v>0.73988330401084346</v>
       </c>
-      <c r="T10" s="69" t="str">
+      <c r="Q10" s="69" t="str">
         <f>'Tube G'!G8</f>
         <v>C7</v>
       </c>
-      <c r="U10" s="70">
+      <c r="R10" s="70">
         <f>'Tube G'!F8</f>
         <v>1.7430397109999998</v>
       </c>
-      <c r="V10" s="71">
+      <c r="S10" s="71">
         <v>1.3383382964556123</v>
       </c>
-      <c r="W10" s="69" t="str">
+      <c r="T10" s="69" t="str">
         <f>'Tube H'!G8</f>
         <v>H10</v>
       </c>
-      <c r="X10" s="70">
+      <c r="U10" s="70">
         <f>'Tube H'!F8</f>
         <v>1.7383408430000014</v>
       </c>
-      <c r="Y10" s="72">
+      <c r="V10" s="72">
         <v>2.6516855898958496</v>
       </c>
-      <c r="Z10" s="69" t="str">
+      <c r="W10" s="69" t="str">
         <f>'Tube I'!G8</f>
         <v>G1</v>
       </c>
-      <c r="AA10" s="70">
+      <c r="X10" s="70">
         <f>'Tube I'!F8</f>
         <v>1.7376305490000004</v>
       </c>
-      <c r="AB10" s="71">
+      <c r="Y10" s="71">
         <v>2.0663028796184588</v>
       </c>
-      <c r="AC10" s="69" t="str">
+      <c r="Z10" s="69" t="str">
         <f>'Tube J'!G8</f>
         <v>D4</v>
       </c>
-      <c r="AD10" s="67">
+      <c r="AA10" s="67">
         <f>'Tube J'!F8</f>
         <v>1.7376305490000004</v>
       </c>
-      <c r="AE10" s="71">
+      <c r="AB10" s="71">
         <v>1.7882639967057676</v>
       </c>
-      <c r="AF10" s="69" t="str">
+      <c r="AC10" s="69" t="str">
         <f>'Tube K'!G8</f>
         <v>C7</v>
       </c>
-      <c r="AG10" s="70">
+      <c r="AD10" s="70">
         <f>'Tube K'!F8</f>
         <v>1.7423840550000005</v>
       </c>
-      <c r="AH10" s="71">
+      <c r="AE10" s="71">
         <v>1.8574729786736199</v>
       </c>
-      <c r="AI10" s="69" t="str">
+      <c r="AF10" s="69" t="str">
         <f>'Tube L'!G8</f>
         <v>H10</v>
       </c>
-      <c r="AJ10" s="70">
+      <c r="AG10" s="70">
         <f>'Tube L'!F8</f>
         <v>1.7383954810000013</v>
       </c>
-      <c r="AK10" s="72">
+      <c r="AH10" s="72">
         <v>0.98319024002015365</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:34">
       <c r="A11" s="53">
         <v>8</v>
       </c>
@@ -20148,95 +19834,84 @@
         <v>6.0039683395290995</v>
       </c>
       <c r="N11" s="69" t="str">
-        <f>'Tube E'!G9</f>
-        <v>H1</v>
-      </c>
-      <c r="O11" s="70">
-        <f>'Tube E'!F9</f>
-        <v>1.7340517600000016</v>
-      </c>
-      <c r="P11" s="71">
-        <v>1.7405849060160321</v>
-      </c>
-      <c r="Q11" s="69" t="str">
         <f>'Tube F'!G9</f>
         <v>C4</v>
       </c>
-      <c r="R11" s="70">
+      <c r="O11" s="70">
         <f>'Tube F'!F9</f>
         <v>1.7359094520000014</v>
       </c>
-      <c r="S11" s="71">
+      <c r="P11" s="71">
         <v>1.8801455230154585</v>
       </c>
-      <c r="T11" s="69" t="str">
+      <c r="Q11" s="69" t="str">
         <f>'Tube G'!G9</f>
         <v>D7</v>
       </c>
-      <c r="U11" s="70">
+      <c r="R11" s="70">
         <f>'Tube G'!F9</f>
         <v>1.7364831510000016</v>
       </c>
-      <c r="V11" s="71">
+      <c r="S11" s="71">
         <v>3.2712622249117036</v>
       </c>
-      <c r="W11" s="69" t="str">
+      <c r="T11" s="69" t="str">
         <f>'Tube H'!G9</f>
         <v>G10</v>
       </c>
-      <c r="X11" s="70">
+      <c r="U11" s="70">
         <f>'Tube H'!F9</f>
         <v>1.732877043000002</v>
       </c>
-      <c r="Y11" s="72">
+      <c r="V11" s="72">
         <v>4.7748969512629804</v>
       </c>
-      <c r="Z11" s="69" t="str">
+      <c r="W11" s="69" t="str">
         <f>'Tube I'!G9</f>
         <v>H1</v>
       </c>
-      <c r="AA11" s="70">
+      <c r="X11" s="70">
         <f>'Tube I'!F9</f>
         <v>1.732166749000001</v>
       </c>
-      <c r="AB11" s="71">
+      <c r="Y11" s="71">
         <v>4.2161866585380947</v>
       </c>
-      <c r="AC11" s="69" t="str">
+      <c r="Z11" s="69" t="str">
         <f>'Tube J'!G9</f>
         <v>C4</v>
       </c>
-      <c r="AD11" s="67">
+      <c r="AA11" s="67">
         <f>'Tube J'!F9</f>
         <v>1.732166749000001</v>
       </c>
-      <c r="AE11" s="71">
+      <c r="AB11" s="71">
         <v>3.7032278574720014</v>
       </c>
-      <c r="AF11" s="69" t="str">
+      <c r="AC11" s="69" t="str">
         <f>'Tube K'!G9</f>
         <v>D7</v>
       </c>
-      <c r="AG11" s="70">
+      <c r="AD11" s="70">
         <f>'Tube K'!F9</f>
         <v>1.7371114880000018</v>
       </c>
-      <c r="AH11" s="71">
+      <c r="AE11" s="71">
         <v>4.278331961226578</v>
       </c>
-      <c r="AI11" s="69" t="str">
+      <c r="AF11" s="69" t="str">
         <f>'Tube L'!G9</f>
         <v>G10</v>
       </c>
-      <c r="AJ11" s="70">
+      <c r="AG11" s="70">
         <f>'Tube L'!F9</f>
         <v>1.7329316810000019</v>
       </c>
-      <c r="AK11" s="72">
+      <c r="AH11" s="72">
         <v>2.071860929373734</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:34">
       <c r="A12" s="53">
         <v>9</v>
       </c>
@@ -20285,95 +19960,84 @@
         <v>10.604478062356407</v>
       </c>
       <c r="N12" s="69" t="str">
-        <f>'Tube E'!G10</f>
-        <v>H2</v>
-      </c>
-      <c r="O12" s="70">
-        <f>'Tube E'!F10</f>
-        <v>1.7285879600000005</v>
-      </c>
-      <c r="P12" s="71">
-        <v>4.9275928938810152</v>
-      </c>
-      <c r="Q12" s="69" t="str">
         <f>'Tube F'!G10</f>
         <v>B4</v>
       </c>
-      <c r="R12" s="70">
+      <c r="O12" s="70">
         <f>'Tube F'!F10</f>
         <v>1.730445652000002</v>
       </c>
-      <c r="S12" s="71">
+      <c r="P12" s="71">
         <v>5.259198175603796</v>
       </c>
-      <c r="T12" s="69" t="str">
+      <c r="Q12" s="69" t="str">
         <f>'Tube G'!G10</f>
         <v>E7</v>
       </c>
-      <c r="U12" s="70">
+      <c r="R12" s="70">
         <f>'Tube G'!F10</f>
         <v>1.7310193510000023</v>
       </c>
-      <c r="V12" s="71">
+      <c r="S12" s="71">
         <v>6.710167062618372</v>
       </c>
-      <c r="W12" s="69" t="str">
+      <c r="T12" s="69" t="str">
         <f>'Tube H'!G10</f>
         <v>F10</v>
       </c>
-      <c r="X12" s="70">
+      <c r="U12" s="70">
         <f>'Tube H'!F10</f>
         <v>1.7276044760000016</v>
       </c>
-      <c r="Y12" s="72">
+      <c r="V12" s="72">
         <v>9.2037133822347528</v>
       </c>
-      <c r="Z12" s="69" t="str">
+      <c r="W12" s="69" t="str">
         <f>'Tube I'!G10</f>
         <v>H2</v>
       </c>
-      <c r="AA12" s="70">
+      <c r="X12" s="70">
         <f>'Tube I'!F10</f>
         <v>1.7277957090000022</v>
       </c>
-      <c r="AB12" s="71">
+      <c r="Y12" s="71">
         <v>9.6762543909239564</v>
       </c>
-      <c r="AC12" s="69" t="str">
+      <c r="Z12" s="69" t="str">
         <f>'Tube J'!G10</f>
         <v>B4</v>
       </c>
-      <c r="AD12" s="67">
+      <c r="AA12" s="67">
         <f>'Tube J'!F10</f>
         <v>1.7268941820000023</v>
       </c>
-      <c r="AE12" s="71">
+      <c r="AB12" s="71">
         <v>10.251813724991193</v>
       </c>
-      <c r="AF12" s="69" t="str">
+      <c r="AC12" s="69" t="str">
         <f>'Tube K'!G10</f>
         <v>E7</v>
       </c>
-      <c r="AG12" s="70">
+      <c r="AD12" s="70">
         <f>'Tube K'!F10</f>
         <v>1.7305549280000019</v>
       </c>
-      <c r="AH12" s="71">
+      <c r="AE12" s="71">
         <v>11.326101433791171</v>
       </c>
-      <c r="AI12" s="69" t="str">
+      <c r="AF12" s="69" t="str">
         <f>'Tube L'!G10</f>
         <v>F10</v>
       </c>
-      <c r="AJ12" s="70">
+      <c r="AG12" s="70">
         <f>'Tube L'!F10</f>
         <v>1.7274678810000026</v>
       </c>
-      <c r="AK12" s="72">
+      <c r="AH12" s="72">
         <v>8.3919064186559726</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:34">
       <c r="A13" s="53">
         <v>10</v>
       </c>
@@ -20422,95 +20086,84 @@
         <v>15.002435205239072</v>
       </c>
       <c r="N13" s="69" t="str">
-        <f>'Tube E'!G11</f>
-        <v>G2</v>
-      </c>
-      <c r="O13" s="70">
-        <f>'Tube E'!F11</f>
-        <v>1.7220314000000023</v>
-      </c>
-      <c r="P13" s="72">
-        <v>7.1658953846892928</v>
-      </c>
-      <c r="Q13" s="69" t="str">
         <f>'Tube F'!G11</f>
         <v>A4</v>
       </c>
-      <c r="R13" s="70">
+      <c r="O13" s="70">
         <f>'Tube F'!F11</f>
         <v>1.7238890920000021</v>
       </c>
-      <c r="S13" s="71">
+      <c r="P13" s="71">
         <v>12.965287749378312</v>
       </c>
-      <c r="T13" s="69" t="str">
+      <c r="Q13" s="69" t="str">
         <f>'Tube G'!G11</f>
         <v>F7</v>
       </c>
-      <c r="U13" s="70">
+      <c r="R13" s="70">
         <f>'Tube G'!F11</f>
         <v>1.7244627910000023</v>
       </c>
-      <c r="V13" s="71">
+      <c r="S13" s="71">
         <v>11.546163297360749</v>
       </c>
-      <c r="W13" s="69" t="str">
+      <c r="T13" s="69" t="str">
         <f>'Tube H'!G11</f>
         <v>E10</v>
       </c>
-      <c r="X13" s="70">
+      <c r="U13" s="70">
         <f>'Tube H'!F11</f>
         <v>1.7210479159999998</v>
       </c>
-      <c r="Y13" s="72">
+      <c r="V13" s="72">
         <v>12.01523819688679</v>
       </c>
-      <c r="Z13" s="69" t="str">
+      <c r="W13" s="69" t="str">
         <f>'Tube I'!G11</f>
         <v>G2</v>
       </c>
-      <c r="AA13" s="70">
+      <c r="X13" s="70">
         <f>'Tube I'!F11</f>
         <v>1.7212391490000005</v>
       </c>
-      <c r="AB13" s="71">
+      <c r="Y13" s="71">
         <v>12.44837260207561</v>
       </c>
-      <c r="AC13" s="69" t="str">
+      <c r="Z13" s="69" t="str">
         <f>'Tube J'!G11</f>
         <v>A4</v>
       </c>
-      <c r="AD13" s="67">
+      <c r="AA13" s="67">
         <f>'Tube J'!F11</f>
         <v>1.7203376220000006</v>
       </c>
-      <c r="AE13" s="71">
+      <c r="AB13" s="71">
         <v>14.704833027668696</v>
       </c>
-      <c r="AF13" s="69" t="str">
+      <c r="AC13" s="69" t="str">
         <f>'Tube K'!G11</f>
         <v>F7</v>
       </c>
-      <c r="AG13" s="70">
+      <c r="AD13" s="70">
         <f>'Tube K'!F11</f>
         <v>1.7250911280000025</v>
       </c>
-      <c r="AH13" s="71">
+      <c r="AE13" s="71">
         <v>21.566952911806322</v>
       </c>
-      <c r="AI13" s="69" t="str">
+      <c r="AF13" s="69" t="str">
         <f>'Tube L'!G11</f>
         <v>E10</v>
       </c>
-      <c r="AJ13" s="70">
+      <c r="AG13" s="70">
         <f>'Tube L'!F11</f>
         <v>1.7209113210000009</v>
       </c>
-      <c r="AK13" s="71">
+      <c r="AH13" s="71">
         <v>15.168456133371402</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:34">
       <c r="A14" s="53">
         <v>11</v>
       </c>
@@ -20559,95 +20212,84 @@
         <v>10.129916645156106</v>
       </c>
       <c r="N14" s="69" t="str">
-        <f>'Tube E'!G12</f>
-        <v>F2</v>
-      </c>
-      <c r="O14" s="70">
-        <f>'Tube E'!F12</f>
-        <v>1.7154748400000006</v>
-      </c>
-      <c r="P14" s="72">
-        <v>5.5973919674452288</v>
-      </c>
-      <c r="Q14" s="69" t="str">
         <f>'Tube F'!G12</f>
         <v>A5</v>
       </c>
-      <c r="R14" s="70">
+      <c r="O14" s="70">
         <f>'Tube F'!F12</f>
         <v>1.7184252920000009</v>
       </c>
-      <c r="S14" s="71">
+      <c r="P14" s="71">
         <v>14.166349007196551</v>
       </c>
-      <c r="T14" s="69" t="str">
+      <c r="Q14" s="69" t="str">
         <f>'Tube G'!G12</f>
         <v>G7</v>
       </c>
-      <c r="U14" s="70">
+      <c r="R14" s="70">
         <f>'Tube G'!F12</f>
         <v>1.7189989910000012</v>
       </c>
-      <c r="V14" s="71">
+      <c r="S14" s="71">
         <v>10.294676926812519</v>
       </c>
-      <c r="W14" s="69" t="str">
+      <c r="T14" s="69" t="str">
         <f>'Tube H'!G12</f>
         <v>D10</v>
       </c>
-      <c r="X14" s="70">
+      <c r="U14" s="70">
         <f>'Tube H'!F12</f>
         <v>1.7144913560000017</v>
       </c>
-      <c r="Y14" s="72">
+      <c r="V14" s="72">
         <v>9.5606880477201148</v>
       </c>
-      <c r="Z14" s="69" t="str">
+      <c r="W14" s="69" t="str">
         <f>'Tube I'!G12</f>
         <v>F2</v>
       </c>
-      <c r="AA14" s="70">
+      <c r="X14" s="70">
         <f>'Tube I'!F12</f>
         <v>1.7146825890000006</v>
       </c>
-      <c r="AB14" s="71">
+      <c r="Y14" s="71">
         <v>8.7730455669668395</v>
       </c>
-      <c r="AC14" s="69" t="str">
+      <c r="Z14" s="69" t="str">
         <f>'Tube J'!G12</f>
         <v>A5</v>
       </c>
-      <c r="AD14" s="67">
+      <c r="AA14" s="67">
         <f>'Tube J'!F12</f>
         <v>1.7148738220000013</v>
       </c>
-      <c r="AE14" s="71">
+      <c r="AB14" s="71">
         <v>10.1057952020653</v>
       </c>
-      <c r="AF14" s="69" t="str">
+      <c r="AC14" s="69" t="str">
         <f>'Tube K'!G12</f>
         <v>G7</v>
       </c>
-      <c r="AG14" s="70">
+      <c r="AD14" s="70">
         <f>'Tube K'!F12</f>
         <v>1.7196273280000014</v>
       </c>
-      <c r="AH14" s="71">
+      <c r="AE14" s="71">
         <v>17.707285369551531</v>
       </c>
-      <c r="AI14" s="69" t="str">
+      <c r="AF14" s="69" t="str">
         <f>'Tube L'!G12</f>
         <v>D10</v>
       </c>
-      <c r="AJ14" s="70">
+      <c r="AG14" s="70">
         <f>'Tube L'!F12</f>
         <v>1.7154475210000015</v>
       </c>
-      <c r="AK14" s="73">
+      <c r="AH14" s="73">
         <v>13.571247209689352</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:34">
       <c r="A15" s="53">
         <v>12</v>
       </c>
@@ -20696,95 +20338,84 @@
         <v>5.2234259183528238</v>
       </c>
       <c r="N15" s="69" t="str">
-        <f>'Tube E'!G13</f>
-        <v>E2</v>
-      </c>
-      <c r="O15" s="70">
-        <f>'Tube E'!F13</f>
-        <v>1.7100110400000013</v>
-      </c>
-      <c r="P15" s="72">
-        <v>3.3054180584630726</v>
-      </c>
-      <c r="Q15" s="69" t="str">
         <f>'Tube F'!G13</f>
         <v>B5</v>
       </c>
-      <c r="R15" s="70">
+      <c r="O15" s="70">
         <f>'Tube F'!F13</f>
         <v>1.7107759720000004</v>
       </c>
-      <c r="S15" s="71">
+      <c r="P15" s="71">
         <v>11.795425267770995</v>
       </c>
-      <c r="T15" s="69" t="str">
+      <c r="Q15" s="69" t="str">
         <f>'Tube G'!G13</f>
         <v>H7</v>
       </c>
-      <c r="U15" s="70">
+      <c r="R15" s="70">
         <f>'Tube G'!F13</f>
         <v>1.7137264240000007</v>
       </c>
-      <c r="V15" s="71">
+      <c r="S15" s="71">
         <v>9.0066358938315521</v>
       </c>
-      <c r="W15" s="69" t="str">
+      <c r="T15" s="69" t="str">
         <f>'Tube H'!G13</f>
         <v>C10</v>
       </c>
-      <c r="X15" s="70">
+      <c r="U15" s="70">
         <f>'Tube H'!F13</f>
         <v>1.7090275560000023</v>
       </c>
-      <c r="Y15" s="71">
+      <c r="V15" s="71">
         <v>4.9652393584353005</v>
       </c>
-      <c r="Z15" s="69" t="str">
+      <c r="W15" s="69" t="str">
         <f>'Tube I'!G13</f>
         <v>E2</v>
       </c>
-      <c r="AA15" s="70">
+      <c r="X15" s="70">
         <f>'Tube I'!F13</f>
         <v>1.7081260290000024</v>
       </c>
-      <c r="AB15" s="71">
+      <c r="Y15" s="71">
         <v>4.7628510853947654</v>
       </c>
-      <c r="AC15" s="69" t="str">
+      <c r="Z15" s="69" t="str">
         <f>'Tube J'!G13</f>
         <v>B5</v>
       </c>
-      <c r="AD15" s="67">
+      <c r="AA15" s="67">
         <f>'Tube J'!F13</f>
         <v>1.7094100220000019</v>
       </c>
-      <c r="AE15" s="71">
+      <c r="AB15" s="71">
         <v>5.656225891687245</v>
       </c>
-      <c r="AF15" s="69" t="str">
+      <c r="AC15" s="69" t="str">
         <f>'Tube K'!G13</f>
         <v>H7</v>
       </c>
-      <c r="AG15" s="70">
+      <c r="AD15" s="70">
         <f>'Tube K'!F13</f>
         <v>1.7130707680000015</v>
       </c>
-      <c r="AH15" s="71">
+      <c r="AE15" s="71">
         <v>10.928493036010599</v>
       </c>
-      <c r="AI15" s="69" t="str">
+      <c r="AF15" s="69" t="str">
         <f>'Tube L'!G13</f>
         <v>C10</v>
       </c>
-      <c r="AJ15" s="70">
+      <c r="AG15" s="70">
         <f>'Tube L'!F13</f>
         <v>1.7088909610000016</v>
       </c>
-      <c r="AK15" s="73">
+      <c r="AH15" s="73">
         <v>8.1865181985616928</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:34">
       <c r="A16" s="53">
         <v>13</v>
       </c>
@@ -20833,95 +20464,84 @@
         <v>2.4168416912849877</v>
       </c>
       <c r="N16" s="69" t="str">
-        <f>'Tube E'!G14</f>
-        <v>D2</v>
-      </c>
-      <c r="O16" s="70">
-        <f>'Tube E'!F14</f>
-        <v>1.7058312330000014</v>
-      </c>
-      <c r="P16" s="72">
-        <v>1.2385948039325978</v>
-      </c>
-      <c r="Q16" s="69" t="str">
         <f>'Tube F'!G14</f>
         <v>C5</v>
       </c>
-      <c r="R16" s="70">
+      <c r="O16" s="70">
         <f>'Tube F'!F14</f>
         <v>1.7064049320000017</v>
       </c>
-      <c r="S16" s="71">
+      <c r="P16" s="71">
         <v>5.9410296893898211</v>
       </c>
-      <c r="T16" s="69" t="str">
+      <c r="Q16" s="69" t="str">
         <f>'Tube G'!G14</f>
         <v>H8</v>
       </c>
-      <c r="U16" s="70">
+      <c r="R16" s="70">
         <f>'Tube G'!F14</f>
         <v>1.7082626240000014</v>
       </c>
-      <c r="V16" s="71">
+      <c r="S16" s="71">
         <v>4.924382154551405</v>
       </c>
-      <c r="W16" s="69" t="str">
+      <c r="T16" s="69" t="str">
         <f>'Tube H'!G14</f>
         <v>B10</v>
       </c>
-      <c r="X16" s="70">
+      <c r="U16" s="70">
         <f>'Tube H'!F14</f>
         <v>1.7024709960000024</v>
       </c>
-      <c r="Y16" s="71">
+      <c r="V16" s="71">
         <v>2.2158330753027897</v>
       </c>
-      <c r="Z16" s="69" t="str">
+      <c r="W16" s="69" t="str">
         <f>'Tube I'!G14</f>
         <v>D2</v>
       </c>
-      <c r="AA16" s="70">
+      <c r="X16" s="70">
         <f>'Tube I'!F14</f>
         <v>1.7026622290000031</v>
       </c>
-      <c r="AB16" s="71">
+      <c r="Y16" s="71">
         <v>1.4271757532337432</v>
       </c>
-      <c r="AC16" s="69" t="str">
+      <c r="Z16" s="69" t="str">
         <f>'Tube J'!G14</f>
         <v>C5</v>
       </c>
-      <c r="AD16" s="67">
+      <c r="AA16" s="67">
         <f>'Tube J'!F14</f>
         <v>1.702853462000002</v>
       </c>
-      <c r="AE16" s="71">
+      <c r="AB16" s="71">
         <v>2.0496890859749821</v>
       </c>
-      <c r="AF16" s="69" t="str">
+      <c r="AC16" s="69" t="str">
         <f>'Tube K'!G14</f>
         <v>H8</v>
       </c>
-      <c r="AG16" s="70">
+      <c r="AD16" s="70">
         <f>'Tube K'!F14</f>
         <v>1.7076069680000021</v>
       </c>
-      <c r="AH16" s="71">
+      <c r="AE16" s="71">
         <v>4.26288189128993</v>
       </c>
-      <c r="AI16" s="69" t="str">
+      <c r="AF16" s="69" t="str">
         <f>'Tube L'!G14</f>
         <v>B10</v>
       </c>
-      <c r="AJ16" s="70">
+      <c r="AG16" s="70">
         <f>'Tube L'!F14</f>
         <v>1.7034271610000022</v>
       </c>
-      <c r="AK16" s="73">
+      <c r="AH16" s="73">
         <v>3.1706941464795051</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:34">
       <c r="A17" s="53">
         <v>14</v>
       </c>
@@ -20970,95 +20590,84 @@
         <v>1.3167341994171025</v>
       </c>
       <c r="N17" s="69" t="str">
-        <f>'Tube E'!G15</f>
-        <v>C2</v>
-      </c>
-      <c r="O17" s="70">
-        <f>'Tube E'!F15</f>
-        <v>1.6992746729999997</v>
-      </c>
-      <c r="P17" s="72">
-        <v>0.57865861680473907</v>
-      </c>
-      <c r="Q17" s="69" t="str">
         <f>'Tube F'!G15</f>
         <v>D5</v>
       </c>
-      <c r="R17" s="70">
+      <c r="O17" s="70">
         <f>'Tube F'!F15</f>
         <v>1.7009411320000023</v>
       </c>
-      <c r="S17" s="71">
+      <c r="P17" s="71">
         <v>2.1589919032261071</v>
       </c>
-      <c r="T17" s="69" t="str">
+      <c r="Q17" s="69" t="str">
         <f>'Tube G'!G15</f>
         <v>G8</v>
       </c>
-      <c r="U17" s="70">
+      <c r="R17" s="70">
         <f>'Tube G'!F15</f>
         <v>1.7018972970000021</v>
       </c>
-      <c r="V17" s="71">
+      <c r="S17" s="71">
         <v>1.8008615251629807</v>
       </c>
-      <c r="W17" s="69" t="str">
+      <c r="T17" s="69" t="str">
         <f>'Tube H'!G15</f>
         <v>A10</v>
       </c>
-      <c r="X17" s="70">
+      <c r="U17" s="70">
         <f>'Tube H'!F15</f>
         <v>1.6970071960000013</v>
       </c>
-      <c r="Y17" s="71">
+      <c r="V17" s="71">
         <v>1.198877471397406</v>
       </c>
-      <c r="Z17" s="69" t="str">
+      <c r="W17" s="69" t="str">
         <f>'Tube I'!G15</f>
         <v>C2</v>
       </c>
-      <c r="AA17" s="70">
+      <c r="X17" s="70">
         <f>'Tube I'!F15</f>
         <v>1.6971984290000002</v>
       </c>
-      <c r="AB17" s="71">
+      <c r="Y17" s="71">
         <v>0.78793324473984494</v>
       </c>
-      <c r="AC17" s="69" t="str">
+      <c r="Z17" s="69" t="str">
         <f>'Tube J'!G15</f>
         <v>D5</v>
       </c>
-      <c r="AD17" s="67">
+      <c r="AA17" s="67">
         <f>'Tube J'!F15</f>
         <v>1.6962969020000003</v>
       </c>
-      <c r="AE17" s="71">
+      <c r="AB17" s="71">
         <v>1.1232862207564553</v>
       </c>
-      <c r="AF17" s="69" t="str">
+      <c r="AC17" s="69" t="str">
         <f>'Tube K'!G15</f>
         <v>G8</v>
       </c>
-      <c r="AG17" s="70">
+      <c r="AD17" s="70">
         <f>'Tube K'!F15</f>
         <v>1.7010504080000004</v>
       </c>
-      <c r="AH17" s="71">
+      <c r="AE17" s="71">
         <v>1.9029912771927979</v>
       </c>
-      <c r="AI17" s="69" t="str">
+      <c r="AF17" s="69" t="str">
         <f>'Tube L'!G15</f>
         <v>A10</v>
       </c>
-      <c r="AJ17" s="70">
+      <c r="AG17" s="70">
         <f>'Tube L'!F15</f>
         <v>1.6979633610000011</v>
       </c>
-      <c r="AK17" s="71">
+      <c r="AH17" s="71">
         <v>1.2979424599700591</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:34">
       <c r="A18" s="53">
         <v>15</v>
       </c>
@@ -21107,95 +20716,84 @@
         <v>0.70581804836896067</v>
       </c>
       <c r="N18" s="69" t="str">
-        <f>'Tube E'!G16</f>
-        <v>B2</v>
-      </c>
-      <c r="O18" s="70">
-        <f>'Tube E'!F16</f>
-        <v>1.6938108730000003</v>
-      </c>
-      <c r="P18" s="72">
-        <v>0.36568484317493616</v>
-      </c>
-      <c r="Q18" s="69" t="str">
         <f>'Tube F'!G16</f>
         <v>E5</v>
       </c>
-      <c r="R18" s="70">
+      <c r="O18" s="70">
         <f>'Tube F'!F16</f>
         <v>1.6954773320000012</v>
       </c>
-      <c r="S18" s="71">
+      <c r="P18" s="71">
         <v>0.98772844062298315</v>
       </c>
-      <c r="T18" s="69" t="str">
+      <c r="Q18" s="69" t="str">
         <f>'Tube G'!G16</f>
         <v>F8</v>
       </c>
-      <c r="U18" s="70">
+      <c r="R18" s="70">
         <f>'Tube G'!F16</f>
         <v>1.696433497000001</v>
       </c>
-      <c r="V18" s="71">
+      <c r="S18" s="71">
         <v>0.89617090770793162</v>
       </c>
-      <c r="W18" s="69" t="str">
+      <c r="T18" s="69" t="str">
         <f>'Tube H'!G16</f>
         <v>A11</v>
       </c>
-      <c r="X18" s="70">
+      <c r="U18" s="70">
         <f>'Tube H'!F16</f>
         <v>1.6915433960000019</v>
       </c>
-      <c r="Y18" s="71">
+      <c r="V18" s="71">
         <v>0.66615051266167125</v>
       </c>
-      <c r="Z18" s="69" t="str">
+      <c r="W18" s="69" t="str">
         <f>'Tube I'!G16</f>
         <v>B2</v>
       </c>
-      <c r="AA18" s="70">
+      <c r="X18" s="70">
         <f>'Tube I'!F16</f>
         <v>1.690641869000002</v>
       </c>
-      <c r="AB18" s="71">
+      <c r="Y18" s="71">
         <v>0.52366194345331041</v>
       </c>
-      <c r="AC18" s="69" t="str">
+      <c r="Z18" s="69" t="str">
         <f>'Tube J'!G16</f>
         <v>E5</v>
       </c>
-      <c r="AD18" s="67">
+      <c r="AA18" s="67">
         <f>'Tube J'!F16</f>
         <v>1.6919258620000015</v>
       </c>
-      <c r="AE18" s="71">
+      <c r="AB18" s="71">
         <v>0.52795174790941357</v>
       </c>
-      <c r="AF18" s="69" t="str">
+      <c r="AC18" s="69" t="str">
         <f>'Tube K'!G16</f>
         <v>F8</v>
       </c>
-      <c r="AG18" s="70">
+      <c r="AD18" s="70">
         <f>'Tube K'!F16</f>
         <v>1.695586608000001</v>
       </c>
-      <c r="AH18" s="71">
+      <c r="AE18" s="71">
         <v>1.098349846698272</v>
       </c>
-      <c r="AI18" s="69" t="str">
+      <c r="AF18" s="69" t="str">
         <f>'Tube L'!G16</f>
         <v>A11</v>
       </c>
-      <c r="AJ18" s="70">
+      <c r="AG18" s="70">
         <f>'Tube L'!F16</f>
         <v>1.6924995610000018</v>
       </c>
-      <c r="AK18" s="71">
+      <c r="AH18" s="71">
         <v>0.66015842537069169</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:34">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -21244,95 +20842,84 @@
         <v>0.40786089154630129</v>
       </c>
       <c r="N19" s="69" t="str">
-        <f>'Tube E'!G17</f>
-        <v>A2</v>
-      </c>
-      <c r="O19" s="70">
-        <f>'Tube E'!F17</f>
-        <v>1.6872543130000004</v>
-      </c>
-      <c r="P19" s="72">
-        <v>0.16153769103544138</v>
-      </c>
-      <c r="Q19" s="69" t="str">
         <f>'Tube F'!G17</f>
         <v>F5</v>
       </c>
-      <c r="R19" s="70">
+      <c r="O19" s="70">
         <f>'Tube F'!F17</f>
         <v>1.6891120050000019</v>
       </c>
-      <c r="S19" s="71">
+      <c r="P19" s="71">
         <v>0.53239488638498156</v>
       </c>
-      <c r="T19" s="69" t="str">
+      <c r="Q19" s="69" t="str">
         <f>'Tube G'!G17</f>
         <v>E8</v>
       </c>
-      <c r="U19" s="70">
+      <c r="R19" s="70">
         <f>'Tube G'!F17</f>
         <v>1.6909696970000017</v>
       </c>
-      <c r="V19" s="71">
+      <c r="S19" s="71">
         <v>0.55319007824798128</v>
       </c>
-      <c r="W19" s="69" t="str">
+      <c r="T19" s="69" t="str">
         <f>'Tube H'!G17</f>
         <v>B11</v>
       </c>
-      <c r="X19" s="70">
+      <c r="U19" s="70">
         <f>'Tube H'!F17</f>
         <v>1.6860795960000026</v>
       </c>
-      <c r="Y19" s="71">
+      <c r="V19" s="71">
         <v>0.36436301941166827</v>
       </c>
-      <c r="Z19" s="69" t="str">
+      <c r="W19" s="69" t="str">
         <f>'Tube I'!G17</f>
         <v>A2</v>
       </c>
-      <c r="AA19" s="70">
+      <c r="X19" s="70">
         <f>'Tube I'!F17</f>
         <v>1.6851780690000027</v>
       </c>
-      <c r="AB19" s="71">
+      <c r="Y19" s="71">
         <v>0.28675323246879325</v>
       </c>
-      <c r="AC19" s="69" t="str">
+      <c r="Z19" s="69" t="str">
         <f>'Tube J'!G17</f>
         <v>F5</v>
       </c>
-      <c r="AD19" s="67">
+      <c r="AA19" s="67">
         <f>'Tube J'!F17</f>
         <v>1.6853693020000016</v>
       </c>
-      <c r="AE19" s="71">
+      <c r="AB19" s="71">
         <v>0.30259405640194909</v>
       </c>
-      <c r="AF19" s="69" t="str">
+      <c r="AC19" s="69" t="str">
         <f>'Tube K'!G17</f>
         <v>E8</v>
       </c>
-      <c r="AG19" s="70">
+      <c r="AD19" s="70">
         <f>'Tube K'!F17</f>
         <v>1.6901228080000017</v>
       </c>
-      <c r="AH19" s="71">
+      <c r="AE19" s="71">
         <v>0.64878690601504152</v>
       </c>
-      <c r="AI19" s="69" t="str">
+      <c r="AF19" s="69" t="str">
         <f>'Tube L'!G17</f>
         <v>B11</v>
       </c>
-      <c r="AJ19" s="70">
+      <c r="AG19" s="70">
         <f>'Tube L'!F17</f>
         <v>1.6872269940000013</v>
       </c>
-      <c r="AK19" s="71">
+      <c r="AH19" s="71">
         <v>0.38435844667864227</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:34">
       <c r="A20" s="53">
         <v>17</v>
       </c>
@@ -21381,95 +20968,84 @@
         <v>0.22606663831767451</v>
       </c>
       <c r="N20" s="69" t="str">
-        <f>'Tube E'!G18</f>
-        <v>A3</v>
-      </c>
-      <c r="O20" s="70">
-        <f>'Tube E'!F18</f>
-        <v>1.6808889860000011</v>
-      </c>
-      <c r="P20" s="71">
-        <v>6.5667991046156379E-2</v>
-      </c>
-      <c r="Q20" s="69" t="str">
         <f>'Tube F'!G18</f>
         <v>G5</v>
       </c>
-      <c r="R20" s="70">
+      <c r="O20" s="70">
         <f>'Tube F'!F18</f>
         <v>1.6836482050000026</v>
       </c>
-      <c r="S20" s="71">
+      <c r="P20" s="71">
         <v>0.30026153794081889</v>
       </c>
-      <c r="T20" s="69" t="str">
+      <c r="Q20" s="69" t="str">
         <f>'Tube G'!G18</f>
         <v>D8</v>
       </c>
-      <c r="U20" s="70">
+      <c r="R20" s="70">
         <f>'Tube G'!F18</f>
         <v>1.6846043700000024</v>
       </c>
-      <c r="V20" s="71">
+      <c r="S20" s="71">
         <v>0.31817739174990489</v>
       </c>
-      <c r="W20" s="69" t="str">
+      <c r="T20" s="69" t="str">
         <f>'Tube H'!G18</f>
         <v>C11</v>
       </c>
-      <c r="X20" s="70">
+      <c r="U20" s="70">
         <f>'Tube H'!F18</f>
         <v>1.6808070290000021</v>
       </c>
-      <c r="Y20" s="71">
+      <c r="V20" s="71">
         <v>0.21414560207071132</v>
       </c>
-      <c r="Z20" s="69" t="str">
+      <c r="W20" s="69" t="str">
         <f>'Tube I'!G18</f>
         <v>A3</v>
       </c>
-      <c r="AA20" s="70">
+      <c r="X20" s="70">
         <f>'Tube I'!F18</f>
         <v>1.6808070290000021</v>
       </c>
-      <c r="AB20" s="71">
+      <c r="Y20" s="71">
         <v>0.15225518026981838</v>
       </c>
-      <c r="AC20" s="69" t="str">
+      <c r="Z20" s="69" t="str">
         <f>'Tube J'!G18</f>
         <v>G5</v>
       </c>
-      <c r="AD20" s="67">
+      <c r="AA20" s="67">
         <f>'Tube J'!F18</f>
         <v>1.6799055020000022</v>
       </c>
-      <c r="AE20" s="71">
+      <c r="AB20" s="71">
         <v>0.16503817136000565</v>
       </c>
-      <c r="AF20" s="69" t="str">
+      <c r="AC20" s="69" t="str">
         <f>'Tube K'!G18</f>
         <v>D8</v>
       </c>
-      <c r="AG20" s="70">
+      <c r="AD20" s="70">
         <f>'Tube K'!F18</f>
         <v>1.6846590080000023</v>
       </c>
-      <c r="AH20" s="71">
+      <c r="AE20" s="71">
         <v>0.31708633909551315</v>
       </c>
-      <c r="AI20" s="69" t="str">
+      <c r="AF20" s="69" t="str">
         <f>'Tube L'!G18</f>
         <v>C11</v>
       </c>
-      <c r="AJ20" s="70">
+      <c r="AG20" s="70">
         <f>'Tube L'!F18</f>
         <v>1.6806704340000032</v>
       </c>
-      <c r="AK20" s="71">
+      <c r="AH20" s="71">
         <v>0.22408677903630159</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:34">
       <c r="A21" s="53">
         <v>18</v>
       </c>
@@ -21518,95 +21094,84 @@
         <v>0.18346560654512253</v>
       </c>
       <c r="N21" s="69" t="str">
-        <f>'Tube E'!G19</f>
-        <v>B3</v>
-      </c>
-      <c r="O21" s="70">
-        <f>'Tube E'!F19</f>
-        <v>1.6743324259999994</v>
-      </c>
-      <c r="P21" s="71">
-        <v>2.0787336657415514E-2</v>
-      </c>
-      <c r="Q21" s="69" t="str">
         <f>'Tube F'!G19</f>
         <v>H5</v>
       </c>
-      <c r="R21" s="70">
+      <c r="O21" s="70">
         <f>'Tube F'!F19</f>
         <v>1.6770916450000009</v>
       </c>
-      <c r="S21" s="71">
+      <c r="P21" s="71">
         <v>0.15923935676644294</v>
       </c>
-      <c r="T21" s="69" t="str">
+      <c r="Q21" s="69" t="str">
         <f>'Tube G'!G19</f>
         <v>C8</v>
       </c>
-      <c r="U21" s="70">
+      <c r="R21" s="70">
         <f>'Tube G'!F19</f>
         <v>1.677856577</v>
       </c>
-      <c r="V21" s="71">
+      <c r="S21" s="71">
         <v>0.16810283842886667</v>
       </c>
-      <c r="W21" s="69" t="str">
+      <c r="T21" s="69" t="str">
         <f>'Tube H'!G19</f>
         <v>D11</v>
       </c>
-      <c r="X21" s="70">
+      <c r="U21" s="70">
         <f>'Tube H'!F19</f>
         <v>1.6742504690000004</v>
       </c>
-      <c r="Y21" s="71">
+      <c r="V21" s="71">
         <v>0.18675649091030808</v>
       </c>
-      <c r="Z21" s="69" t="str">
+      <c r="W21" s="69" t="str">
         <f>'Tube I'!G19</f>
         <v>B3</v>
       </c>
-      <c r="AA21" s="70">
+      <c r="X21" s="70">
         <f>'Tube I'!F19</f>
         <v>1.6731577090000016</v>
       </c>
-      <c r="AB21" s="71">
+      <c r="Y21" s="71">
         <v>9.8169469049883551E-2</v>
       </c>
-      <c r="AC21" s="69" t="str">
+      <c r="Z21" s="69" t="str">
         <f>'Tube J'!G19</f>
         <v>H5</v>
       </c>
-      <c r="AD21" s="67">
+      <c r="AA21" s="67">
         <f>'Tube J'!F19</f>
         <v>1.6733489420000005</v>
       </c>
-      <c r="AE21" s="71">
+      <c r="AB21" s="71">
         <v>9.584436467870483E-2</v>
       </c>
-      <c r="AF21" s="69" t="str">
+      <c r="AC21" s="69" t="str">
         <f>'Tube K'!G19</f>
         <v>C8</v>
       </c>
-      <c r="AG21" s="70">
+      <c r="AD21" s="70">
         <f>'Tube K'!F19</f>
         <v>1.6781024480000006</v>
       </c>
-      <c r="AH21" s="71">
+      <c r="AE21" s="71">
         <v>0.17096964051869612</v>
       </c>
-      <c r="AI21" s="69" t="str">
+      <c r="AF21" s="69" t="str">
         <f>'Tube L'!G19</f>
         <v>D11</v>
       </c>
-      <c r="AJ21" s="70">
+      <c r="AG21" s="70">
         <f>'Tube L'!F19</f>
         <v>1.6752066340000002</v>
       </c>
-      <c r="AK21" s="71">
+      <c r="AH21" s="71">
         <v>0.18547494168379908</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:34">
       <c r="A22" s="53">
         <v>19</v>
       </c>
@@ -21655,95 +21220,84 @@
         <v>0.18763491733668416</v>
       </c>
       <c r="N22" s="69" t="str">
-        <f>'Tube E'!G20</f>
-        <v>C3</v>
-      </c>
-      <c r="O22" s="70">
-        <f>'Tube E'!F20</f>
-        <v>1.6612193060000013</v>
-      </c>
-      <c r="P22" s="71">
-        <v>1.5747037817537213E-2</v>
-      </c>
-      <c r="Q22" s="69" t="str">
         <f>'Tube F'!G20</f>
         <v>H6</v>
       </c>
-      <c r="R22" s="70">
+      <c r="O22" s="70">
         <f>'Tube F'!F20</f>
         <v>1.6628857650000022</v>
       </c>
-      <c r="S22" s="71">
+      <c r="P22" s="71">
         <v>0.18015894622420073</v>
       </c>
-      <c r="T22" s="69" t="str">
+      <c r="Q22" s="69" t="str">
         <f>'Tube G'!G20</f>
         <v>B8</v>
       </c>
-      <c r="U22" s="70">
+      <c r="R22" s="70">
         <f>'Tube G'!F20</f>
         <v>1.6647434570000019</v>
       </c>
-      <c r="V22" s="71">
+      <c r="S22" s="71">
         <v>0.1727652232800064</v>
       </c>
-      <c r="W22" s="69" t="str">
+      <c r="T22" s="69" t="str">
         <f>'Tube H'!G20</f>
         <v>E11</v>
       </c>
-      <c r="X22" s="70">
+      <c r="U22" s="70">
         <f>'Tube H'!F20</f>
         <v>1.6589518290000029</v>
       </c>
-      <c r="Y22" s="71">
+      <c r="V22" s="71">
         <v>0.18717319775868591</v>
       </c>
-      <c r="Z22" s="69" t="str">
+      <c r="W22" s="69" t="str">
         <f>'Tube I'!G20</f>
         <v>C3</v>
       </c>
-      <c r="AA22" s="70">
+      <c r="X22" s="70">
         <f>'Tube I'!F20</f>
         <v>1.653488029</v>
       </c>
-      <c r="AB22" s="71">
+      <c r="Y22" s="71">
         <v>0.1148302684845689</v>
       </c>
-      <c r="AC22" s="69" t="str">
+      <c r="Z22" s="69" t="str">
         <f>'Tube J'!G20</f>
         <v>H6</v>
       </c>
-      <c r="AD22" s="67">
+      <c r="AA22" s="67">
         <f>'Tube J'!F20</f>
         <v>1.6591430620000018</v>
       </c>
-      <c r="AE22" s="71">
+      <c r="AB22" s="71">
         <v>0.11851319764267197</v>
       </c>
-      <c r="AF22" s="69" t="str">
+      <c r="AC22" s="69" t="str">
         <f>'Tube K'!G20</f>
         <v>B8</v>
       </c>
-      <c r="AG22" s="70">
+      <c r="AD22" s="70">
         <f>'Tube K'!F20</f>
         <v>1.6660820880000013</v>
       </c>
-      <c r="AH22" s="71">
+      <c r="AE22" s="71">
         <v>0.21014917072709535</v>
       </c>
-      <c r="AI22" s="69" t="str">
+      <c r="AF22" s="69" t="str">
         <f>'Tube L'!G20</f>
         <v>E11</v>
       </c>
-      <c r="AJ22" s="70">
+      <c r="AG22" s="70">
         <f>'Tube L'!F20</f>
         <v>1.6610007540000034</v>
       </c>
-      <c r="AK22" s="71">
+      <c r="AH22" s="71">
         <v>0.20109573405743228</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:34">
       <c r="A23" s="53">
         <v>20</v>
       </c>
@@ -21792,95 +21346,84 @@
         <v>0.16412004916728837</v>
       </c>
       <c r="N23" s="69" t="str">
-        <f>'Tube E'!G21</f>
-        <v>D3</v>
-      </c>
-      <c r="O23" s="70">
-        <f>'Tube E'!F21</f>
-        <v>1.6076740659999995</v>
-      </c>
-      <c r="P23" s="71">
-        <v>1.605869867627217E-2</v>
-      </c>
-      <c r="Q23" s="69" t="str">
         <f>'Tube F'!G21</f>
         <v>G6</v>
       </c>
-      <c r="R23" s="70">
+      <c r="O23" s="70">
         <f>'Tube F'!F21</f>
         <v>1.588578085</v>
       </c>
-      <c r="S23" s="71">
+      <c r="P23" s="71">
         <v>0.14975394548583362</v>
       </c>
-      <c r="T23" s="69" t="str">
+      <c r="Q23" s="69" t="str">
         <f>'Tube G'!G21</f>
         <v>A8</v>
       </c>
-      <c r="U23" s="70">
+      <c r="R23" s="70">
         <f>'Tube G'!F21</f>
         <v>1.6068271770000013</v>
       </c>
-      <c r="V23" s="71">
+      <c r="S23" s="71">
         <v>0.1634973571006221</v>
       </c>
-      <c r="W23" s="69" t="str">
+      <c r="T23" s="69" t="str">
         <f>'Tube H'!G21</f>
         <v>F11</v>
       </c>
-      <c r="X23" s="70">
+      <c r="U23" s="70">
         <f>'Tube H'!F21</f>
         <v>1.5999427890000018</v>
       </c>
-      <c r="Y23" s="71">
+      <c r="V23" s="71">
         <v>0.15255100269897306</v>
       </c>
-      <c r="Z23" s="69" t="str">
+      <c r="W23" s="69" t="str">
         <f>'Tube I'!G21</f>
         <v>D3</v>
       </c>
-      <c r="AA23" s="70">
+      <c r="X23" s="70">
         <f>'Tube I'!F21</f>
         <v>1.5835513890000019</v>
       </c>
-      <c r="AB23" s="71">
+      <c r="Y23" s="71">
         <v>7.8036355840388941E-2</v>
       </c>
-      <c r="AC23" s="69" t="str">
+      <c r="Z23" s="69" t="str">
         <f>'Tube J'!G21</f>
         <v>G6</v>
       </c>
-      <c r="AD23" s="67">
+      <c r="AA23" s="67">
         <f>'Tube J'!F21</f>
         <v>1.5924847020000019</v>
       </c>
-      <c r="AE23" s="71">
+      <c r="AB23" s="71">
         <v>0.12274208387272083</v>
       </c>
-      <c r="AF23" s="69" t="str">
+      <c r="AC23" s="69" t="str">
         <f>'Tube K'!G21</f>
         <v>A8</v>
       </c>
-      <c r="AG23" s="70">
+      <c r="AD23" s="70">
         <f>'Tube K'!F21</f>
         <v>1.6081658080000008</v>
       </c>
-      <c r="AH23" s="71">
+      <c r="AE23" s="71">
         <v>0.24488978418305307</v>
       </c>
-      <c r="AI23" s="69" t="str">
+      <c r="AF23" s="69" t="str">
         <f>'Tube L'!G21</f>
         <v>F11</v>
       </c>
-      <c r="AJ23" s="70">
+      <c r="AG23" s="70">
         <f>'Tube L'!F21</f>
         <v>1.6008989540000016</v>
       </c>
-      <c r="AK23" s="71">
+      <c r="AH23" s="71">
         <v>0.17273067295526878</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:34">
       <c r="A24" s="53">
         <v>21</v>
       </c>
@@ -21929,95 +21472,84 @@
         <v>8.8975634842521842E-2</v>
       </c>
       <c r="N24" s="66" t="str">
-        <f>'Tube E'!G22</f>
-        <v>E3</v>
-      </c>
-      <c r="O24" s="67">
-        <f>'Tube E'!F22</f>
-        <v>1.4525021460000005</v>
-      </c>
-      <c r="P24" s="68">
-        <v>9.9967701563640609E-3</v>
-      </c>
-      <c r="Q24" s="66" t="str">
         <f>'Tube F'!G22</f>
         <v>F6</v>
       </c>
-      <c r="R24" s="67">
+      <c r="O24" s="67">
         <f>'Tube F'!F22</f>
         <v>1.4432410050000009</v>
       </c>
-      <c r="S24" s="68">
+      <c r="P24" s="68">
         <v>9.0802427127763499E-2</v>
       </c>
-      <c r="T24" s="66" t="str">
+      <c r="Q24" s="66" t="str">
         <f>'Tube G'!G22</f>
         <v>A9</v>
       </c>
-      <c r="U24" s="67">
+      <c r="R24" s="67">
         <f>'Tube G'!F22</f>
         <v>1.4452899300000013</v>
       </c>
-      <c r="V24" s="68">
+      <c r="S24" s="68">
         <v>8.2425025352552625E-2</v>
       </c>
-      <c r="W24" s="66" t="str">
+      <c r="T24" s="66" t="str">
         <f>'Tube H'!G22</f>
         <v>G11</v>
       </c>
-      <c r="X24" s="67">
+      <c r="U24" s="67">
         <f>'Tube H'!F22</f>
         <v>1.4338432690000005</v>
       </c>
-      <c r="Y24" s="68">
+      <c r="V24" s="68">
         <v>8.9147421724660045E-2</v>
       </c>
-      <c r="Z24" s="66" t="str">
+      <c r="W24" s="66" t="str">
         <f>'Tube I'!G22</f>
         <v>E3</v>
       </c>
-      <c r="AA24" s="67">
+      <c r="X24" s="67">
         <f>'Tube I'!F22</f>
         <v>1.4218229090000012</v>
       </c>
-      <c r="AB24" s="68">
+      <c r="Y24" s="68">
         <v>4.3806465110277949E-2</v>
       </c>
-      <c r="AC24" s="66" t="str">
+      <c r="Z24" s="66" t="str">
         <f>'Tube J'!G22</f>
         <v>F6</v>
       </c>
-      <c r="AD24" s="67">
+      <c r="AA24" s="67">
         <f>'Tube J'!F22</f>
         <v>1.4307562220000012</v>
       </c>
-      <c r="AE24" s="68">
+      <c r="AB24" s="68">
         <v>8.5553563096441534E-2</v>
       </c>
-      <c r="AF24" s="66" t="str">
+      <c r="AC24" s="66" t="str">
         <f>'Tube K'!G22</f>
         <v>A9</v>
       </c>
-      <c r="AG24" s="67">
+      <c r="AD24" s="67">
         <f>'Tube K'!F22</f>
         <v>1.4519011280000012</v>
       </c>
-      <c r="AH24" s="68">
+      <c r="AE24" s="68">
         <v>0.12015109632417403</v>
       </c>
-      <c r="AI24" s="66" t="str">
+      <c r="AF24" s="66" t="str">
         <f>'Tube L'!G22</f>
         <v>G11</v>
       </c>
-      <c r="AJ24" s="67">
+      <c r="AG24" s="67">
         <f>'Tube L'!F22</f>
         <v>1.4490053140000025</v>
       </c>
-      <c r="AK24" s="68">
+      <c r="AH24" s="68">
         <v>7.2336361404271035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="13" thickBot="1">
+    <row r="25" spans="1:34" ht="13" thickBot="1">
       <c r="A25" s="53">
         <v>22</v>
       </c>
@@ -22066,98 +21598,87 @@
         <v>3.7039730078053834E-2</v>
       </c>
       <c r="N25" s="75" t="str">
-        <f>'Tube E'!G23</f>
-        <v>F3</v>
-      </c>
-      <c r="O25" s="76">
-        <f>'Tube E'!F23</f>
-        <v>1.2219297860000022</v>
-      </c>
-      <c r="P25" s="77">
-        <v>-6.7615395812915024E-3</v>
-      </c>
-      <c r="Q25" s="75" t="str">
         <f>'Tube F'!G23</f>
         <v>E6</v>
       </c>
-      <c r="R25" s="76">
+      <c r="O25" s="76">
         <f>'Tube F'!F23</f>
         <v>1.2257817650000007</v>
       </c>
-      <c r="S25" s="77">
+      <c r="P25" s="77">
         <v>2.8783013681855579E-2</v>
       </c>
-      <c r="T25" s="66" t="str">
+      <c r="Q25" s="66" t="str">
         <f>'Tube G'!G23</f>
         <v>B9</v>
       </c>
-      <c r="U25" s="76">
+      <c r="R25" s="76">
         <f>'Tube G'!F23</f>
         <v>1.2103465300000007</v>
       </c>
-      <c r="V25" s="77">
+      <c r="S25" s="77">
         <v>2.6147941291145043E-2</v>
       </c>
-      <c r="W25" s="75" t="str">
+      <c r="T25" s="75" t="str">
         <f>'Tube H'!G23</f>
         <v>H11</v>
       </c>
-      <c r="X25" s="76">
+      <c r="U25" s="76">
         <f>'Tube H'!F23</f>
         <v>1.204363669000001</v>
       </c>
-      <c r="Y25" s="77">
+      <c r="V25" s="77">
         <v>5.5120515639831259E-2</v>
       </c>
-      <c r="Z25" s="66" t="str">
+      <c r="W25" s="66" t="str">
         <f>'Tube I'!G23</f>
         <v>F3</v>
       </c>
-      <c r="AA25" s="67">
+      <c r="X25" s="67">
         <f>'Tube I'!F23</f>
         <v>1.2141985090000009</v>
       </c>
-      <c r="AB25" s="85">
+      <c r="Y25" s="85">
         <v>-5.4011460372198729E-3</v>
       </c>
-      <c r="AC25" s="86" t="str">
+      <c r="Z25" s="86" t="str">
         <f>'Tube J'!G23</f>
         <v>E6</v>
       </c>
-      <c r="AD25" s="67">
+      <c r="AA25" s="67">
         <f>'Tube J'!F23</f>
         <v>1.2143897419999998</v>
       </c>
-      <c r="AE25" s="68">
+      <c r="AB25" s="68">
         <v>-9.1127643156254708E-3</v>
       </c>
-      <c r="AF25" s="86" t="str">
+      <c r="AC25" s="86" t="str">
         <f>'Tube K'!G23</f>
         <v>B9</v>
       </c>
-      <c r="AG25" s="87">
+      <c r="AD25" s="87">
         <f>'Tube K'!F23</f>
         <v>1.2420912080000033</v>
       </c>
-      <c r="AH25" s="68">
+      <c r="AE25" s="68">
         <v>3.6427674743680687E-2</v>
       </c>
-      <c r="AI25" s="66" t="str">
+      <c r="AF25" s="66" t="str">
         <f>'Tube L'!G23</f>
         <v>H11</v>
       </c>
-      <c r="AJ25" s="87">
+      <c r="AG25" s="87">
         <f>'Tube L'!F23</f>
         <v>1.2686999140000026</v>
       </c>
-      <c r="AK25" s="68">
+      <c r="AH25" s="68">
         <v>2.4605725697834511E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="13" thickTop="1">
+    <row r="26" spans="1:34" ht="13" thickTop="1">
       <c r="B26" s="70"/>
       <c r="C26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="79">
         <f>SUM(D5:D25)*40/TubeLoading!J29*100</f>
@@ -22165,7 +21686,7 @@
       </c>
       <c r="E26" s="70"/>
       <c r="F26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26" s="79">
         <f>SUM(G5:G25)*40/TubeLoading!J30*100</f>
@@ -22173,7 +21694,7 @@
       </c>
       <c r="H26" s="70"/>
       <c r="I26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J26" s="79">
         <f>SUM(J5:J25)*40/TubeLoading!J31*100</f>
@@ -22181,7 +21702,7 @@
       </c>
       <c r="K26" s="80"/>
       <c r="L26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M26" s="79">
         <f>SUM(M5:M25)*40/TubeLoading!J32*100</f>
@@ -22189,70 +21710,62 @@
       </c>
       <c r="N26" s="70"/>
       <c r="O26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P26" s="79">
-        <f>SUM(P5:P25)*40/TubeLoading!J33*100</f>
-        <v>26.628704569891344</v>
-      </c>
-      <c r="Q26" s="70"/>
+        <f>SUM(P5:P25)*40/TubeLoading!J34*100</f>
+        <v>57.662918331918334</v>
+      </c>
+      <c r="Q26" s="84"/>
       <c r="R26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S26" s="79">
-        <f>SUM(S5:S25)*40/TubeLoading!J34*100</f>
-        <v>57.662918331918334</v>
-      </c>
-      <c r="T26" s="84"/>
+        <f>SUM(S5:S25)*40/TubeLoading!J35*100</f>
+        <v>51.880488596434027</v>
+      </c>
+      <c r="T26" s="70"/>
       <c r="U26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V26" s="79">
-        <f>SUM(V5:V25)*40/TubeLoading!J35*100</f>
-        <v>51.880488596434027</v>
-      </c>
-      <c r="W26" s="70"/>
-      <c r="X26" s="78" t="s">
-        <v>190</v>
+        <f>SUM(V5:V25)*40/TubeLoading!J36*100</f>
+        <v>50.608966076308725</v>
+      </c>
+      <c r="W26" s="88"/>
+      <c r="X26" s="89" t="s">
+        <v>189</v>
       </c>
       <c r="Y26" s="79">
-        <f>SUM(Y5:Y25)*40/TubeLoading!J36*100</f>
-        <v>50.608966076308725</v>
-      </c>
-      <c r="Z26" s="88"/>
+        <f>SUM(Y5:Y25)*40/TubeLoading!J37*100</f>
+        <v>46.555184025455496</v>
+      </c>
+      <c r="Z26" s="70"/>
       <c r="AA26" s="89" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB26" s="79">
-        <f>SUM(AB5:AB25)*40/TubeLoading!J37*100</f>
-        <v>46.555184025455496</v>
+        <v>189</v>
+      </c>
+      <c r="AB26" s="90">
+        <f>SUM(AB5:AB25)*40/TubeLoading!J38*100</f>
+        <v>52.38979754643708</v>
       </c>
       <c r="AC26" s="70"/>
-      <c r="AD26" s="89" t="s">
-        <v>190</v>
+      <c r="AD26" s="78" t="s">
+        <v>189</v>
       </c>
       <c r="AE26" s="90">
-        <f>SUM(AE5:AE25)*40/TubeLoading!J38*100</f>
-        <v>52.38979754643708</v>
-      </c>
-      <c r="AF26" s="70"/>
+        <f>SUM(AE5:AE25)*40/TubeLoading!J39*100</f>
+        <v>77.464564012012275</v>
+      </c>
+      <c r="AF26" s="91"/>
       <c r="AG26" s="78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AH26" s="90">
-        <f>SUM(AH5:AH25)*40/TubeLoading!J39*100</f>
-        <v>77.464564012012275</v>
-      </c>
-      <c r="AI26" s="91"/>
-      <c r="AJ26" s="78" t="s">
-        <v>190</v>
-      </c>
-      <c r="AK26" s="90">
-        <f>SUM(AK5:AK25)*40/TubeLoading!J40*100</f>
+        <f>SUM(AH5:AH25)*40/TubeLoading!J40*100</f>
         <v>55.306942035093876</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:34">
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
       <c r="D27" s="70"/>
@@ -22266,7 +21779,7 @@
       <c r="L27" s="70"/>
       <c r="M27" s="70"/>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:34">
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
       <c r="D28" s="70"/>
@@ -22280,13 +21793,13 @@
       <c r="L28" s="70"/>
       <c r="M28" s="70"/>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:34">
       <c r="A29" s="59"/>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:34">
       <c r="A30" s="59"/>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:34">
       <c r="A31" s="59"/>
     </row>
     <row r="55" spans="1:13">
@@ -22350,18 +21863,17 @@
       <c r="A86" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="11">
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
     <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23223,7 +22735,7 @@
         <v>148</v>
       </c>
       <c r="J28" s="97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K28" s="98" t="s">
         <v>46</v>
@@ -26191,7 +25703,7 @@
         <v>1.6959963929999997</v>
       </c>
       <c r="G16" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -26216,7 +25728,7 @@
         <v>1.6905325930000004</v>
       </c>
       <c r="G17" s="55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -26241,7 +25753,7 @@
         <v>1.6841672660000011</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -26266,7 +25778,7 @@
         <v>1.6776107060000029</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -26291,7 +25803,7 @@
         <v>1.6601265460000025</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -26316,7 +25828,7 @@
         <v>1.5890971460000003</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -26341,7 +25853,7 @@
         <v>1.4251831460000002</v>
       </c>
       <c r="G22" s="55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -26366,7 +25878,7 @@
         <v>1.1980802990000026</v>
       </c>
       <c r="G23" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
